--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_10.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376800.6061809956</v>
+        <v>376800.6061809955</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221765</v>
+        <v>2629876.587221766</v>
       </c>
     </row>
     <row r="8">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>24.87477961344436</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -747,16 +747,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>27.29193749722201</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I4" t="n">
         <v>39.58387696184059</v>
@@ -841,7 +841,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -905,52 +905,52 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.91618947337665</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="H5" t="n">
+      <c r="S5" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="I5" t="n">
+      <c r="T5" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>24.87477961344436</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>24.5704967621155</v>
+        <v>27.29193749722201</v>
       </c>
       <c r="I7" t="n">
         <v>39.58387696184059</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12.92549025883184</v>
+        <v>22.91618947337665</v>
       </c>
       <c r="G8" t="n">
         <v>39.58387696184059</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>7.256111626157765</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>39.58387696184059</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>39.58387696184059</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I11" t="n">
-        <v>39.58387696184059</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,31 +1446,31 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1506,16 +1506,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1616,52 +1616,52 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22.91618947337665</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>34.86547882798917</v>
+      </c>
+      <c r="S14" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="H14" t="n">
+      <c r="T14" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="I14" t="n">
+      <c r="U14" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1692,22 +1692,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F15" t="n">
-        <v>34.11888750173132</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G15" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="H15" t="n">
-        <v>39.58387696184059</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="I15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1780,43 +1780,43 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q16" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="I16" t="n">
+      <c r="R16" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="J16" t="n">
+      <c r="S16" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="K16" t="n">
-        <v>9.977552361264268</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>7.256111626157765</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1862,34 +1862,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R17" t="n">
-        <v>28.88091821707974</v>
       </c>
       <c r="S17" t="n">
         <v>44.13217237922859</v>
@@ -1898,7 +1898,7 @@
         <v>44.13217237922859</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1932,16 +1932,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>44.13217237922859</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="W19" t="n">
         <v>44.13217237922859</v>
@@ -2068,7 +2068,7 @@
         <v>44.13217237922859</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.790450447682262</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="20">
@@ -2078,19 +2078,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="21">
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>24.91124646905582</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -2217,10 +2217,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2236,61 +2236,61 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2315,19 +2315,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2409,16 +2409,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>35.00246782997241</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>50.05769526855297</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2515,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>44.30348359856715</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,22 +2606,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>202.2946864288972</v>
       </c>
-      <c r="U26" t="n">
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2640,10 +2640,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>78.68895450699577</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -2652,10 +2652,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>116.6485294405293</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2697,10 +2697,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>241.0142888776591</v>
@@ -2837,28 +2837,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>62.4162677022923</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,13 +2871,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>57.44545255886327</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.7364879284881</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2928,13 +2928,13 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3038,10 +3038,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>241.0142888776591</v>
@@ -3105,13 +3105,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>118.3634851578964</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>118.5628686044508</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3165,13 +3165,13 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3196,64 +3196,64 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,11 +3263,11 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>202.2946864288972</v>
-      </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3317,13 +3317,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3363,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3399,19 +3399,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>183.3891096567392</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>69.1692801483136</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3512,19 +3512,19 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>220.8837963815379</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
-        <v>202.2946864288972</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3588,13 +3588,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>39.97466500197062</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3633,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3679,10 +3679,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3737,73 +3737,73 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>46.46083974404437</v>
+      </c>
+      <c r="J41" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
         <v>236.4659934602711</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>236.4659934602711</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>208.2792470398066</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>236.4659934602711</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3828,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>116.0281692411908</v>
+        <v>131.0465786647177</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3882,7 +3882,7 @@
         <v>236.4659934602711</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,13 +4022,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="S44" t="n">
-        <v>24.87477961344436</v>
-      </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>12.92549025883184</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4110,19 +4110,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
         <v>34.86547882798917</v>
       </c>
-      <c r="V45" t="n">
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="W45" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="X45" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4147,55 +4147,55 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>9.977552361264268</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="H46" t="n">
+      <c r="V46" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="I46" t="n">
+      <c r="W46" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="J46" t="n">
-        <v>9.977552361264268</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.166710156947247</v>
+        <v>108.260178376266</v>
       </c>
       <c r="C2" t="n">
-        <v>3.166710156947247</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="D2" t="n">
-        <v>3.166710156947247</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="E2" t="n">
-        <v>3.166710156947247</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="F2" t="n">
-        <v>3.166710156947247</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="G2" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H2" t="n">
         <v>3.166710156947247</v>
@@ -4331,16 +4331,16 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K2" t="n">
-        <v>3.166710156947247</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L2" t="n">
-        <v>42.35474834916943</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M2" t="n">
-        <v>81.54278654139161</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N2" t="n">
-        <v>120.7308247336138</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O2" t="n">
         <v>158.3355078473624</v>
@@ -4352,28 +4352,28 @@
         <v>148.2438924791353</v>
       </c>
       <c r="R2" t="n">
-        <v>108.260178376266</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="S2" t="n">
-        <v>68.2764642733967</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="T2" t="n">
-        <v>28.29275017052741</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="U2" t="n">
-        <v>3.166710156947247</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="V2" t="n">
-        <v>3.166710156947247</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="W2" t="n">
-        <v>3.166710156947247</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="X2" t="n">
-        <v>3.166710156947247</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.166710156947247</v>
+        <v>148.2438924791353</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="C3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="D3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="E3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="F3" t="n">
-        <v>123.8719851183408</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="G3" t="n">
-        <v>83.88827101547153</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="H3" t="n">
-        <v>43.90455691260225</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="I3" t="n">
         <v>3.920842809732961</v>
@@ -4410,49 +4410,49 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K3" t="n">
-        <v>42.35474834916943</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L3" t="n">
-        <v>79.95943146291799</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M3" t="n">
-        <v>79.95943146291799</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N3" t="n">
         <v>79.95943146291799</v>
       </c>
       <c r="O3" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P3" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q3" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="R3" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S3" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T3" t="n">
-        <v>158.3355078473624</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="U3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="V3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="W3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="X3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="Y3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.920842809732961</v>
       </c>
     </row>
     <row r="4">
@@ -4480,13 +4480,13 @@
         <v>133.1961881840039</v>
       </c>
       <c r="H4" t="n">
-        <v>105.6285745504463</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="I4" t="n">
-        <v>65.64486044757699</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="J4" t="n">
-        <v>25.66114634470771</v>
+        <v>13.245045875396</v>
       </c>
       <c r="K4" t="n">
         <v>3.166710156947247</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C5" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D5" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E5" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F5" t="n">
-        <v>135.1878417126385</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G5" t="n">
-        <v>95.20412760976917</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H5" t="n">
-        <v>55.22041350689989</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I5" t="n">
-        <v>15.2366994040306</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J5" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K5" t="n">
-        <v>42.35474834916943</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L5" t="n">
-        <v>81.54278654139161</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M5" t="n">
-        <v>120.7308247336138</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N5" t="n">
-        <v>158.3355078473624</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O5" t="n">
-        <v>158.3355078473624</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P5" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="Q5" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R5" t="n">
-        <v>158.3355078473624</v>
+        <v>108.260178376266</v>
       </c>
       <c r="S5" t="n">
-        <v>158.3355078473624</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="T5" t="n">
-        <v>158.3355078473624</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="U5" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V5" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W5" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X5" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y5" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="6">
@@ -4653,10 +4653,10 @@
         <v>42.35474834916943</v>
       </c>
       <c r="M6" t="n">
-        <v>81.54278654139161</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N6" t="n">
-        <v>81.54278654139161</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O6" t="n">
         <v>119.1474696551402</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C7" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="D7" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="E7" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="F7" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="G7" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="H7" t="n">
         <v>105.6285745504463</v>
@@ -4741,34 +4741,34 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P7" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q7" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R7" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S7" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T7" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U7" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V7" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W7" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X7" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y7" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C8" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D8" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E8" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F8" t="n">
         <v>135.1878417126385</v>
@@ -4805,49 +4805,49 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K8" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L8" t="n">
-        <v>42.35474834916943</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M8" t="n">
         <v>79.95943146291799</v>
       </c>
       <c r="N8" t="n">
+        <v>79.95943146291799</v>
+      </c>
+      <c r="O8" t="n">
         <v>119.1474696551402</v>
-      </c>
-      <c r="O8" t="n">
-        <v>158.3355078473624</v>
       </c>
       <c r="P8" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R8" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S8" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T8" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U8" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V8" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W8" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X8" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y8" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C9" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D9" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E9" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F9" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G9" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H9" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I9" t="n">
         <v>3.166710156947247</v>
@@ -4884,16 +4884,16 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K9" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L9" t="n">
-        <v>42.35474834916943</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M9" t="n">
-        <v>81.54278654139161</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N9" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O9" t="n">
         <v>158.3355078473624</v>
@@ -4914,19 +4914,19 @@
         <v>38.38436553875449</v>
       </c>
       <c r="U9" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V9" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W9" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X9" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y9" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>90.46354404567346</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="C10" t="n">
-        <v>90.46354404567346</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="D10" t="n">
-        <v>90.46354404567346</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="E10" t="n">
-        <v>90.46354404567346</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="F10" t="n">
-        <v>90.46354404567346</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="G10" t="n">
-        <v>90.46354404567346</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="H10" t="n">
-        <v>90.46354404567346</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="I10" t="n">
-        <v>65.64486044757699</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="J10" t="n">
-        <v>25.66114634470771</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="K10" t="n">
         <v>3.166710156947247</v>
@@ -4984,28 +4984,28 @@
         <v>90.46354404567346</v>
       </c>
       <c r="R10" t="n">
-        <v>90.46354404567346</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="S10" t="n">
-        <v>90.46354404567346</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="T10" t="n">
-        <v>90.46354404567346</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="U10" t="n">
-        <v>90.46354404567346</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="V10" t="n">
-        <v>90.46354404567346</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="W10" t="n">
-        <v>90.46354404567346</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="X10" t="n">
-        <v>90.46354404567346</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="Y10" t="n">
-        <v>90.46354404567346</v>
+        <v>10.49611583993489</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>83.13413836268582</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C11" t="n">
-        <v>83.13413836268582</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D11" t="n">
-        <v>83.13413836268582</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E11" t="n">
-        <v>83.13413836268582</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F11" t="n">
-        <v>43.15042425981653</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="G11" t="n">
-        <v>43.15042425981653</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="H11" t="n">
-        <v>43.15042425981653</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="I11" t="n">
         <v>3.166710156947247</v>
@@ -5045,13 +5045,13 @@
         <v>42.35474834916943</v>
       </c>
       <c r="L11" t="n">
-        <v>81.54278654139161</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M11" t="n">
-        <v>119.1474696551402</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N11" t="n">
-        <v>119.1474696551402</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O11" t="n">
         <v>119.1474696551402</v>
@@ -5084,7 +5084,7 @@
         <v>158.3355078473624</v>
       </c>
       <c r="Y11" t="n">
-        <v>123.1178524655551</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.920842809732961</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C12" t="n">
-        <v>3.920842809732961</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D12" t="n">
-        <v>3.920842809732961</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E12" t="n">
-        <v>3.920842809732961</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="F12" t="n">
-        <v>3.920842809732961</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="G12" t="n">
-        <v>3.920842809732961</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="H12" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I12" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J12" t="n">
         <v>3.166710156947247</v>
@@ -5127,16 +5127,16 @@
         <v>3.166710156947247</v>
       </c>
       <c r="M12" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N12" t="n">
-        <v>40.77139327069581</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O12" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P12" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q12" t="n">
         <v>158.3355078473624</v>
@@ -5154,16 +5154,16 @@
         <v>158.3355078473624</v>
       </c>
       <c r="V12" t="n">
-        <v>123.8719851183408</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W12" t="n">
-        <v>83.88827101547153</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X12" t="n">
-        <v>83.88827101547153</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y12" t="n">
-        <v>43.90455691260225</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="13">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C14" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D14" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E14" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F14" t="n">
-        <v>135.1878417126385</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G14" t="n">
-        <v>95.20412760976917</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H14" t="n">
-        <v>55.22041350689989</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I14" t="n">
-        <v>15.2366994040306</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J14" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K14" t="n">
-        <v>42.35474834916943</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L14" t="n">
-        <v>42.35474834916943</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M14" t="n">
         <v>42.35474834916943</v>
@@ -5300,28 +5300,28 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R14" t="n">
-        <v>158.3355078473624</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="S14" t="n">
-        <v>158.3355078473624</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="T14" t="n">
-        <v>158.3355078473624</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="U14" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V14" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W14" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X14" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y14" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="15">
@@ -5340,31 +5340,31 @@
         <v>158.3355078473624</v>
       </c>
       <c r="E15" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="F15" t="n">
-        <v>123.8719851183408</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="G15" t="n">
-        <v>83.88827101547153</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="H15" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I15" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J15" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K15" t="n">
-        <v>3.166710156947247</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L15" t="n">
-        <v>3.166710156947247</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M15" t="n">
-        <v>40.77139327069581</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N15" t="n">
         <v>79.95943146291799</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H16" t="n">
-        <v>93.21247408113457</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I16" t="n">
-        <v>53.22875997826529</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J16" t="n">
-        <v>13.245045875396</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K16" t="n">
         <v>3.166710156947247</v>
@@ -5452,34 +5452,34 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P16" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q16" t="n">
-        <v>133.1961881840039</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="R16" t="n">
-        <v>133.1961881840039</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="S16" t="n">
-        <v>133.1961881840039</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="T16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="U16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C17" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D17" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E17" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F17" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G17" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H17" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I17" t="n">
         <v>3.530573790338288</v>
@@ -5516,16 +5516,16 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K17" t="n">
-        <v>47.22142444577459</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L17" t="n">
-        <v>47.22142444577459</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M17" t="n">
-        <v>47.22142444577459</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N17" t="n">
-        <v>90.91227510121089</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O17" t="n">
         <v>132.8378388614781</v>
@@ -5534,31 +5534,31 @@
         <v>176.5286895169144</v>
       </c>
       <c r="Q17" t="n">
-        <v>166.4370741486873</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R17" t="n">
-        <v>137.2644294849704</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S17" t="n">
-        <v>92.68647758675968</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T17" t="n">
-        <v>48.10852568854899</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U17" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V17" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W17" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X17" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y17" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.530573790338288</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C18" t="n">
-        <v>3.530573790338288</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D18" t="n">
-        <v>3.530573790338288</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E18" t="n">
-        <v>3.530573790338288</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F18" t="n">
-        <v>3.530573790338288</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="G18" t="n">
-        <v>3.530573790338288</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="H18" t="n">
-        <v>3.530573790338288</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="I18" t="n">
         <v>3.530573790338288</v>
@@ -5595,49 +5595,49 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K18" t="n">
-        <v>47.22142444577459</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L18" t="n">
-        <v>90.91227510121089</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M18" t="n">
-        <v>134.6031257566472</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N18" t="n">
-        <v>134.6031257566472</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O18" t="n">
-        <v>134.6031257566472</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P18" t="n">
-        <v>134.6031257566472</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q18" t="n">
         <v>176.5286895169144</v>
       </c>
       <c r="R18" t="n">
-        <v>137.2644294849704</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S18" t="n">
-        <v>92.68647758675968</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T18" t="n">
-        <v>48.10852568854899</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U18" t="n">
-        <v>3.530573790338288</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V18" t="n">
-        <v>3.530573790338288</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W18" t="n">
-        <v>3.530573790338288</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X18" t="n">
-        <v>3.530573790338288</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.530573790338288</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="19">
@@ -5707,13 +5707,13 @@
         <v>138.062864280609</v>
       </c>
       <c r="V19" t="n">
-        <v>93.48491238239833</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W19" t="n">
-        <v>48.90696048418764</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X19" t="n">
-        <v>4.329008585976936</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y19" t="n">
         <v>3.530573790338288</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>365.4316055857233</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>190.9785763045963</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>190.9785763045963</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>190.9785763045963</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>44.44401833148123</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>44.44401833148123</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>44.44401833148123</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5838,13 +5838,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5856,25 +5856,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>726.1056462496665</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>497.8820279860555</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>262.7299197543128</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W21" t="n">
-        <v>19.28114311021272</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>533.6469426057913</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6020,19 +6020,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W23" t="n">
-        <v>953.9655401424092</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X23" t="n">
-        <v>953.9655401424092</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="Y23" t="n">
-        <v>710.516763498309</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N24" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>913.4938269565423</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>913.4938269565423</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V24" t="n">
-        <v>678.3417187247995</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W24" t="n">
-        <v>434.8929420806995</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X24" t="n">
-        <v>227.0414418751666</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="25">
@@ -6163,16 +6163,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.03213664411894</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>64.03213664411894</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S25" t="n">
-        <v>64.03213664411894</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T25" t="n">
         <v>19.28114311021272</v>
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6254,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="U26" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="V26" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="U26" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="V26" t="n">
-        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>430.6185591254734</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="C27" t="n">
-        <v>430.6185591254734</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="D27" t="n">
-        <v>430.6185591254734</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="E27" t="n">
-        <v>271.3811041200179</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F27" t="n">
-        <v>271.3811041200179</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G27" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,7 +6309,7 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>304.2053859195205</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
         <v>304.2053859195205</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U27" t="n">
-        <v>846.2303580959601</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V27" t="n">
-        <v>846.2303580959601</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W27" t="n">
-        <v>846.2303580959601</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X27" t="n">
-        <v>638.3788578904273</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y27" t="n">
-        <v>430.6185591254734</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F28" t="n">
         <v>829.5248650203655</v>
@@ -6406,28 +6406,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
         <v>262.7299197543128</v>
@@ -6485,28 +6485,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>251.7598820467572</v>
+        <v>279.0604900729671</v>
       </c>
       <c r="C30" t="n">
-        <v>77.30685276563017</v>
+        <v>279.0604900729671</v>
       </c>
       <c r="D30" t="n">
-        <v>77.30685276563017</v>
+        <v>130.1260804117159</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>130.1260804117159</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>130.1260804117159</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>130.1260804117159</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6546,13 +6546,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6576,16 +6576,16 @@
         <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>627.7355178317791</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W30" t="n">
-        <v>627.7355178317791</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X30" t="n">
-        <v>627.7355178317791</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y30" t="n">
-        <v>419.9752190668252</v>
+        <v>447.2758270930352</v>
       </c>
     </row>
     <row r="31">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6725,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="33">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>193.7341723913397</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>139.0416164480418</v>
       </c>
       <c r="D33" t="n">
         <v>19.28114311021272</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V33" t="n">
-        <v>728.9050472788936</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W33" t="n">
-        <v>728.9050472788936</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X33" t="n">
-        <v>521.0535470733607</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y33" t="n">
-        <v>313.2932483084068</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>193.7341723913397</v>
+        <v>284.787934186969</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7047,19 +7047,19 @@
         <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>605.3982860555079</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V36" t="n">
-        <v>605.3982860555079</v>
+        <v>492.5482329519229</v>
       </c>
       <c r="W36" t="n">
-        <v>361.9495094114078</v>
+        <v>492.5482329519229</v>
       </c>
       <c r="X36" t="n">
-        <v>361.9495094114078</v>
+        <v>492.5482329519229</v>
       </c>
       <c r="Y36" t="n">
-        <v>361.9495094114078</v>
+        <v>284.787934186969</v>
       </c>
     </row>
     <row r="37">
@@ -7120,7 +7120,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
         <v>19.28114311021272</v>
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C38" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D38" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E38" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F38" t="n">
-        <v>467.067986854209</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G38" t="n">
-        <v>223.6192102101089</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H38" t="n">
-        <v>223.6192102101089</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7217,7 +7217,7 @@
         <v>953.9655401424092</v>
       </c>
       <c r="Y38" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>365.4316055857233</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>365.4316055857233</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>365.4316055857233</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>206.1941505802678</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>59.65959260715275</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7257,19 +7257,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7281,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>913.4938269565423</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>678.3417187247995</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W39" t="n">
-        <v>434.8929420806995</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X39" t="n">
-        <v>227.0414418751666</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>533.6469426057913</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
         <v>19.28114311021272</v>
@@ -7357,25 +7357,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>468.1548961435668</v>
+        <v>77.91740987950541</v>
       </c>
       <c r="C41" t="n">
-        <v>468.1548961435668</v>
+        <v>77.91740987950541</v>
       </c>
       <c r="D41" t="n">
-        <v>468.1548961435668</v>
+        <v>77.91740987950541</v>
       </c>
       <c r="E41" t="n">
-        <v>468.1548961435668</v>
+        <v>77.91740987950541</v>
       </c>
       <c r="F41" t="n">
-        <v>468.1548961435668</v>
+        <v>77.91740987950541</v>
       </c>
       <c r="G41" t="n">
-        <v>229.3003572948082</v>
+        <v>77.91740987950541</v>
       </c>
       <c r="H41" t="n">
-        <v>229.3003572948082</v>
+        <v>77.91740987950541</v>
       </c>
       <c r="I41" t="n">
-        <v>18.91727947682168</v>
+        <v>30.98726872390504</v>
       </c>
       <c r="J41" t="n">
         <v>18.91727947682168</v>
@@ -7415,7 +7415,7 @@
         <v>121.932285387744</v>
       </c>
       <c r="L41" t="n">
-        <v>302.0081369724026</v>
+        <v>284.1788189362417</v>
       </c>
       <c r="M41" t="n">
         <v>501.1544461991459</v>
@@ -7433,28 +7433,28 @@
         <v>945.8639738410842</v>
       </c>
       <c r="R41" t="n">
-        <v>945.8639738410842</v>
+        <v>794.4810264257815</v>
       </c>
       <c r="S41" t="n">
-        <v>945.8639738410842</v>
+        <v>794.4810264257815</v>
       </c>
       <c r="T41" t="n">
-        <v>945.8639738410842</v>
+        <v>794.4810264257815</v>
       </c>
       <c r="U41" t="n">
-        <v>945.8639738410842</v>
+        <v>555.6264875770228</v>
       </c>
       <c r="V41" t="n">
-        <v>945.8639738410842</v>
+        <v>555.6264875770228</v>
       </c>
       <c r="W41" t="n">
-        <v>945.8639738410842</v>
+        <v>555.6264875770228</v>
       </c>
       <c r="X41" t="n">
-        <v>945.8639738410842</v>
+        <v>316.7719487282641</v>
       </c>
       <c r="Y41" t="n">
-        <v>707.0094349923255</v>
+        <v>77.91740987950541</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>310.5704797086465</v>
+        <v>325.7405902374616</v>
       </c>
       <c r="C42" t="n">
-        <v>136.1174504275195</v>
+        <v>151.2875609563345</v>
       </c>
       <c r="D42" t="n">
-        <v>136.1174504275195</v>
+        <v>151.2875609563345</v>
       </c>
       <c r="E42" t="n">
-        <v>136.1174504275195</v>
+        <v>151.2875609563345</v>
       </c>
       <c r="F42" t="n">
         <v>18.91727947682168</v>
@@ -7494,19 +7494,19 @@
         <v>144.2748395346591</v>
       </c>
       <c r="L42" t="n">
-        <v>374.2379454030082</v>
+        <v>144.2748395346591</v>
       </c>
       <c r="M42" t="n">
-        <v>374.2379454030082</v>
+        <v>378.3761730603275</v>
       </c>
       <c r="N42" t="n">
-        <v>529.119162702065</v>
+        <v>612.4775065859958</v>
       </c>
       <c r="O42" t="n">
-        <v>763.2204962277333</v>
+        <v>693.8259377144041</v>
       </c>
       <c r="P42" t="n">
-        <v>945.8639738410842</v>
+        <v>876.4694153277549</v>
       </c>
       <c r="Q42" t="n">
         <v>945.8639738410842</v>
@@ -7515,25 +7515,25 @@
         <v>945.8639738410842</v>
       </c>
       <c r="S42" t="n">
-        <v>945.8639738410842</v>
+        <v>772.4466292917531</v>
       </c>
       <c r="T42" t="n">
-        <v>945.8639738410842</v>
+        <v>772.4466292917531</v>
       </c>
       <c r="U42" t="n">
-        <v>717.6403555774732</v>
+        <v>772.4466292917531</v>
       </c>
       <c r="V42" t="n">
-        <v>717.6403555774732</v>
+        <v>772.4466292917531</v>
       </c>
       <c r="W42" t="n">
-        <v>478.7858167287145</v>
+        <v>533.5920904429944</v>
       </c>
       <c r="X42" t="n">
-        <v>478.7858167287145</v>
+        <v>325.7405902374616</v>
       </c>
       <c r="Y42" t="n">
-        <v>478.7858167287145</v>
+        <v>325.7405902374616</v>
       </c>
     </row>
     <row r="43">
@@ -7591,19 +7591,19 @@
         <v>153.4495699670924</v>
       </c>
       <c r="R43" t="n">
-        <v>153.4495699670924</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="S43" t="n">
-        <v>153.4495699670924</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4495699670924</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="U43" t="n">
-        <v>153.4495699670924</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="V43" t="n">
-        <v>153.4495699670924</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="W43" t="n">
         <v>18.91727947682168</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>83.13413836268582</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="C44" t="n">
-        <v>83.13413836268582</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="D44" t="n">
-        <v>83.13413836268582</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="E44" t="n">
-        <v>83.13413836268582</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="F44" t="n">
-        <v>43.15042425981653</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="G44" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="H44" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="J44" t="n">
         <v>3.166710156947247</v>
@@ -7670,28 +7670,28 @@
         <v>148.2438924791353</v>
       </c>
       <c r="R44" t="n">
+        <v>148.2438924791353</v>
+      </c>
+      <c r="S44" t="n">
         <v>108.260178376266</v>
       </c>
-      <c r="S44" t="n">
-        <v>83.13413836268582</v>
-      </c>
       <c r="T44" t="n">
-        <v>83.13413836268582</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="U44" t="n">
-        <v>83.13413836268582</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="V44" t="n">
-        <v>83.13413836268582</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="W44" t="n">
-        <v>83.13413836268582</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="X44" t="n">
-        <v>83.13413836268582</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="Y44" t="n">
-        <v>83.13413836268582</v>
+        <v>95.20412760976917</v>
       </c>
     </row>
     <row r="45">
@@ -7701,7 +7701,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C45" t="n">
         <v>3.166710156947247</v>
@@ -7728,13 +7728,13 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K45" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L45" t="n">
-        <v>40.77139327069581</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M45" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N45" t="n">
         <v>119.1474696551402</v>
@@ -7743,7 +7743,7 @@
         <v>119.1474696551402</v>
       </c>
       <c r="P45" t="n">
-        <v>158.3355078473624</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q45" t="n">
         <v>158.3355078473624</v>
@@ -7758,19 +7758,19 @@
         <v>158.3355078473624</v>
       </c>
       <c r="U45" t="n">
+        <v>158.3355078473624</v>
+      </c>
+      <c r="V45" t="n">
+        <v>158.3355078473624</v>
+      </c>
+      <c r="W45" t="n">
         <v>123.1178524655551</v>
       </c>
-      <c r="V45" t="n">
+      <c r="X45" t="n">
+        <v>123.1178524655551</v>
+      </c>
+      <c r="Y45" t="n">
         <v>83.13413836268582</v>
-      </c>
-      <c r="W45" t="n">
-        <v>43.15042425981653</v>
-      </c>
-      <c r="X45" t="n">
-        <v>3.166710156947247</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C46" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D46" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E46" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F46" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G46" t="n">
-        <v>93.21247408113457</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H46" t="n">
-        <v>53.22875997826529</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I46" t="n">
-        <v>13.245045875396</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J46" t="n">
         <v>3.166710156947247</v>
@@ -7825,31 +7825,31 @@
         <v>133.1961881840039</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.1961881840039</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="R46" t="n">
-        <v>133.1961881840039</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="S46" t="n">
-        <v>133.1961881840039</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="T46" t="n">
-        <v>133.1961881840039</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U46" t="n">
-        <v>133.1961881840039</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V46" t="n">
-        <v>133.1961881840039</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W46" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X46" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y46" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7979,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>258.0743794427063</v>
       </c>
       <c r="L2" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
         <v>269.9301101891133</v>
@@ -7991,7 +7991,7 @@
         <v>268.9969405584315</v>
       </c>
       <c r="O2" t="n">
-        <v>268.0827398194126</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P2" t="n">
         <v>231.2329957552695</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>176.5389081776</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P3" t="n">
         <v>173.5582843761708</v>
       </c>
       <c r="Q3" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>269.9301101891133</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N5" t="n">
-        <v>267.3975919943167</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8301,13 +8301,13 @@
         <v>178.1382567417148</v>
       </c>
       <c r="M6" t="n">
-        <v>181.7179108838589</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>180.5807728421703</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L8" t="n">
-        <v>275.3502919318278</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M8" t="n">
-        <v>268.3307616249986</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
         <v>269.6820883835273</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L9" t="n">
         <v>178.1382567417148</v>
@@ -8544,7 +8544,7 @@
         <v>169.3262404810591</v>
       </c>
       <c r="O9" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8693,16 +8693,16 @@
         <v>259.6737280068211</v>
       </c>
       <c r="L11" t="n">
-        <v>275.3502919318278</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M11" t="n">
-        <v>268.3307616249986</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P11" t="n">
         <v>270.8168727171101</v>
@@ -8775,19 +8775,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N12" t="n">
-        <v>169.3262404810591</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O12" t="n">
-        <v>182.180121406285</v>
+        <v>180.5807728421703</v>
       </c>
       <c r="P12" t="n">
         <v>173.5582843761708</v>
       </c>
       <c r="Q12" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,13 +8927,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N14" t="n">
         <v>267.3975919943167</v>
@@ -9006,16 +9006,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>175.8259673720848</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>180.1185623197441</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N15" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>182.180121406285</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>264.2220234242092</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L17" t="n">
         <v>235.7664149699872</v>
@@ -9176,7 +9176,7 @@
         <v>273.5452359758195</v>
       </c>
       <c r="O17" t="n">
-        <v>272.4472657249869</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P17" t="n">
         <v>275.3651681344982</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>182.6865521591028</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>186.2662063012469</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>182.3308283893217</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9486,16 +9486,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,10 +9957,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -10194,16 +10194,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,13 +10905,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>241.9453110519923</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,10 +11063,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>399.6518023927121</v>
       </c>
       <c r="M41" t="n">
-        <v>431.5041213350942</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11142,22 +11142,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>378.6000273822893</v>
       </c>
       <c r="N42" t="n">
-        <v>287.7873861227846</v>
+        <v>367.8077055436044</v>
       </c>
       <c r="O42" t="n">
-        <v>379.0622379047155</v>
+        <v>224.7663768973821</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L45" t="n">
-        <v>176.5389081776</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M45" t="n">
-        <v>181.7179108838589</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N45" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>343.14996470164</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>340.3981121575632</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22559,10 +22559,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>375.7188605532945</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>299.8909251539266</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22592,16 +22592,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>226.4708732943921</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22635,16 +22635,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>110.9503248916526</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,16 +22671,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>191.8224945792435</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22720,7 +22720,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>134.9352350102176</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I4" t="n">
         <v>115.8665979654177</v>
@@ -22729,7 +22729,7 @@
         <v>53.77530315483219</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.29193946461858</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22793,19 +22793,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>383.9598562683348</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,19 +22826,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>226.4708732943921</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22957,7 +22957,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>137.6566757453241</v>
+        <v>134.9352350102176</v>
       </c>
       <c r="I7" t="n">
         <v>115.8665979654177</v>
@@ -22981,7 +22981,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -23030,7 +23030,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>393.9505554828796</v>
+        <v>383.9598562683348</v>
       </c>
       <c r="G8" t="n">
         <v>375.7188605532945</v>
@@ -23063,7 +23063,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23118,7 +23118,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>54.53115402342591</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23154,7 +23154,7 @@
         <v>160.580851732981</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>191.0759032529857</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23197,13 +23197,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>130.8799781651428</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15.01338019972509</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23224,10 +23224,10 @@
         <v>46.5781662898538</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23270,13 +23270,13 @@
         <v>367.2921687798708</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>375.7188605532945</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>299.8909251539266</v>
       </c>
       <c r="I11" t="n">
-        <v>170.8920126085653</v>
+        <v>175.6104107424167</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23324,7 +23324,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>351.3724598280644</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,7 +23334,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>126.9493066880268</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23343,22 +23343,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>118.0612034935604</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>105.4853354315433</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>97.75964020137005</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>77.36996540850728</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23394,16 +23394,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>198.681699647694</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>212.111106199079</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>166.0988188154638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23504,19 +23504,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>383.9598562683348</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23540,16 +23540,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>115.0036391131605</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23580,22 +23580,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>118.0612034935604</v>
       </c>
       <c r="F15" t="n">
-        <v>110.9503248916526</v>
+        <v>105.4853354315433</v>
       </c>
       <c r="G15" t="n">
         <v>97.75964020137005</v>
       </c>
       <c r="H15" t="n">
-        <v>72.65156727465587</v>
+        <v>77.36996540850728</v>
       </c>
       <c r="I15" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23668,16 +23668,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>122.643295545599</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>12.29193946461858</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,19 +23692,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>220.6894778021237</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23750,7 +23750,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23774,10 +23774,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>120.9881997240699</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S17" t="n">
         <v>164.8878972070167</v>
@@ -23786,7 +23786,7 @@
         <v>178.9636771849028</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>212.474035476212</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23820,16 +23820,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>50.52501541979053</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23856,16 +23856,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>61.28621672101858</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23947,7 +23947,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>208.0054709445994</v>
+        <v>251.3471928761457</v>
       </c>
       <c r="W19" t="n">
         <v>242.3908259573624</v>
@@ -23956,7 +23956,7 @@
         <v>181.5774830098086</v>
       </c>
       <c r="Y19" t="n">
-        <v>217.7942029044125</v>
+        <v>174.4524809728662</v>
       </c>
     </row>
     <row r="20">
@@ -23966,19 +23966,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -23990,7 +23990,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24020,7 +24020,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>32.75045248984648</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24029,13 +24029,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="21">
@@ -24045,10 +24045,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24057,7 +24057,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24066,7 +24066,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>64.48538638235925</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24096,7 +24096,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>136.2759056302995</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24105,10 +24105,10 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24178,7 +24178,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24203,19 +24203,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>216.5306486674267</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24227,7 +24227,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24260,19 +24260,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24297,16 +24297,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>102.3410493332382</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>150.1070334262686</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24403,7 +24403,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>183.6421058297144</v>
+        <v>180.9206650946078</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24449,7 +24449,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24458,7 +24458,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24494,22 +24494,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24528,10 +24528,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>78.95612594840517</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -24540,10 +24540,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,13 +24570,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>109.2928526404455</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24585,10 +24585,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24646,7 +24646,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24692,7 +24692,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>98.46051323810809</v>
@@ -24725,28 +24725,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>307.3148329761767</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,13 +24759,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>100.1996278965377</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24774,7 +24774,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>2.49895630800836</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24816,13 +24816,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24926,10 +24926,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24938,7 +24938,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>8.683973297415827</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24965,7 +24965,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24980,7 +24980,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>145.2236497783945</v>
@@ -24993,13 +24993,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>48.16969849197095</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>28.88219696018795</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25041,10 +25041,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25053,13 +25053,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="35">
@@ -25151,10 +25151,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>162.9782053421103</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25205,13 +25205,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25220,7 +25220,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25251,10 +25251,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25287,19 +25287,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>42.55227242423561</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>163.6313070011117</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25360,10 +25360,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25400,19 +25400,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>185.9922493601736</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>8.181203141508689</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25476,13 +25476,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>97.36885216124001</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25521,22 +25521,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25567,10 +25567,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
         <v>22.26949182588285</v>
@@ -25597,7 +25597,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>146.2678482032095</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25640,16 +25640,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>178.836744054864</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>2.19664253059932</v>
+        <v>164.0150498263615</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25673,7 +25673,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25682,7 +25682,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>14.87965944756544</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25691,7 +25691,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>133.265107218198</v>
       </c>
       <c r="Y41" t="n">
         <v>149.7719451957825</v>
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25716,7 +25716,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>29.04104315219308</v>
+        <v>14.02263372866614</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25755,13 +25755,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25770,7 +25770,7 @@
         <v>15.22898970064855</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25831,7 +25831,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25846,7 +25846,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25886,7 +25886,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,13 +25910,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>184.145289972801</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>210.1703593052995</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25941,10 +25941,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>126.9493066880268</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>133.1246220264752</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25998,19 +25998,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>191.0759032529857</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>193.2167101875847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>212.111106199079</v>
+        <v>216.8295043329304</v>
       </c>
       <c r="X45" t="n">
-        <v>166.1891082416369</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="46">
@@ -26035,16 +26035,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>128.4071023966182</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>122.643295545599</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
-        <v>83.3816277554085</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K46" t="n">
         <v>22.26949182588285</v>
@@ -26065,7 +26065,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>76.18449089043011</v>
       </c>
       <c r="R46" t="n">
         <v>177.2933913771695</v>
@@ -26077,13 +26077,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>246.7351523946503</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>212.5537663619874</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>246.9391213747504</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355268.3982687964</v>
+        <v>355268.3982687963</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355268.3982687964</v>
+        <v>355268.3982687963</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358659.0160535966</v>
+        <v>358659.0160535965</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495251.8800453862</v>
+        <v>495251.8800453863</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355268.3982687964</v>
+        <v>355268.3982687963</v>
       </c>
     </row>
   </sheetData>
@@ -26314,43 +26314,43 @@
         <v>59211.39971146602</v>
       </c>
       <c r="C2" t="n">
-        <v>59211.39971146602</v>
+        <v>59211.39971146603</v>
       </c>
       <c r="D2" t="n">
+        <v>59211.39971146603</v>
+      </c>
+      <c r="E2" t="n">
+        <v>59211.39971146601</v>
+      </c>
+      <c r="F2" t="n">
         <v>59211.399711466</v>
       </c>
-      <c r="E2" t="n">
-        <v>59211.399711466</v>
-      </c>
-      <c r="F2" t="n">
-        <v>59211.39971146602</v>
-      </c>
       <c r="G2" t="n">
-        <v>59776.50267559939</v>
+        <v>59776.50267559938</v>
       </c>
       <c r="H2" t="n">
-        <v>83080.33626566616</v>
+        <v>83080.33626566615</v>
       </c>
       <c r="I2" t="n">
-        <v>83080.33626566619</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="J2" t="n">
         <v>83080.33626566619</v>
       </c>
       <c r="K2" t="n">
+        <v>83080.33626566615</v>
+      </c>
+      <c r="L2" t="n">
+        <v>83080.33626566618</v>
+      </c>
+      <c r="M2" t="n">
+        <v>83080.33626566618</v>
+      </c>
+      <c r="N2" t="n">
         <v>83080.33626566621</v>
       </c>
-      <c r="L2" t="n">
-        <v>83080.33626566615</v>
-      </c>
-      <c r="M2" t="n">
-        <v>83080.33626566621</v>
-      </c>
-      <c r="N2" t="n">
-        <v>83080.33626566619</v>
-      </c>
       <c r="O2" t="n">
-        <v>82541.9800075643</v>
+        <v>82541.98000756433</v>
       </c>
       <c r="P2" t="n">
         <v>59211.39971146602</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.4675990829</v>
+        <v>13265.46759908291</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26430,7 +26430,7 @@
         <v>33.41106180436364</v>
       </c>
       <c r="G4" t="n">
-        <v>36.87052286425572</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="H4" t="n">
         <v>179.5324977039669</v>
@@ -26442,13 +26442,13 @@
         <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>179.5324977039669</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="L4" t="n">
         <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>179.5324977039669</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="N4" t="n">
         <v>179.5324977039669</v>
@@ -26457,7 +26457,7 @@
         <v>176.2367752791008</v>
       </c>
       <c r="P4" t="n">
-        <v>33.41106180436364</v>
+        <v>33.41106180436363</v>
       </c>
     </row>
     <row r="5">
@@ -26522,43 +26522,43 @@
         <v>9878.221331298839</v>
       </c>
       <c r="C6" t="n">
-        <v>23143.68893038174</v>
+        <v>23143.68893038176</v>
       </c>
       <c r="D6" t="n">
-        <v>23143.68893038173</v>
+        <v>23143.68893038176</v>
       </c>
       <c r="E6" t="n">
+        <v>56771.28893038174</v>
+      </c>
+      <c r="F6" t="n">
         <v>56771.28893038173</v>
-      </c>
-      <c r="F6" t="n">
-        <v>56771.28893038175</v>
       </c>
       <c r="G6" t="n">
         <v>55809.77652260324</v>
       </c>
       <c r="H6" t="n">
-        <v>15126.56803387549</v>
+        <v>15126.56803387548</v>
       </c>
       <c r="I6" t="n">
-        <v>68247.13500420055</v>
+        <v>68247.13500420054</v>
       </c>
       <c r="J6" t="n">
         <v>57890.25110039674</v>
       </c>
       <c r="K6" t="n">
+        <v>68247.13500420051</v>
+      </c>
+      <c r="L6" t="n">
+        <v>68247.13500420054</v>
+      </c>
+      <c r="M6" t="n">
+        <v>68247.13500420054</v>
+      </c>
+      <c r="N6" t="n">
         <v>68247.13500420057</v>
       </c>
-      <c r="L6" t="n">
-        <v>68247.13500420051</v>
-      </c>
-      <c r="M6" t="n">
-        <v>68247.13500420057</v>
-      </c>
-      <c r="N6" t="n">
-        <v>68247.13500420055</v>
-      </c>
       <c r="O6" t="n">
-        <v>67988.61082990072</v>
+        <v>67988.61082990075</v>
       </c>
       <c r="P6" t="n">
         <v>56771.28893038175</v>
@@ -34699,10 +34699,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="L2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>39.58387696184059</v>
@@ -34711,7 +34711,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="O2" t="n">
-        <v>37.98452839772582</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="N3" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="L3" t="n">
-        <v>37.98452839772582</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P3" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="N5" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="L5" t="n">
+      <c r="O5" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="N5" t="n">
-        <v>37.98452839772582</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35021,13 +35021,13 @@
         <v>39.58387696184059</v>
       </c>
       <c r="M6" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>37.98452839772582</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L8" t="n">
-        <v>39.58387696184059</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M8" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L9" t="n">
         <v>39.58387696184059</v>
@@ -35264,7 +35264,7 @@
         <v>37.98452839772582</v>
       </c>
       <c r="O9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35413,16 +35413,16 @@
         <v>39.58387696184059</v>
       </c>
       <c r="L11" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="M11" t="n">
-        <v>37.98452839772582</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>39.58387696184059</v>
@@ -35495,19 +35495,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N12" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="O12" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="O12" t="n">
-        <v>39.58387696184059</v>
       </c>
       <c r="P12" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="Q12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>37.98452839772582</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>37.98452839772582</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>39.58387696184059</v>
@@ -35884,7 +35884,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>44.13217237922859</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>44.13217237922859</v>
       </c>
       <c r="O17" t="n">
-        <v>42.34905430330019</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P17" t="n">
         <v>44.13217237922859</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>42.34905430330018</v>
+      </c>
+      <c r="N18" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="L18" t="n">
+      <c r="O18" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="M18" t="n">
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>42.34905430330016</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,16 +36206,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N24" t="n">
-        <v>99.8112771299739</v>
-      </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,10 +36677,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
         <v>161.1784674257276</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36914,16 +36914,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37625,13 +37625,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>99.81127712997396</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37640,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,10 +37783,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>181.8947995804632</v>
+        <v>163.8853874227249</v>
       </c>
       <c r="M41" t="n">
-        <v>201.1578881078215</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37862,22 +37862,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="N42" t="n">
-        <v>156.4456740394513</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="O42" t="n">
-        <v>236.4659934602711</v>
+        <v>82.17013245293764</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L45" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="M45" t="n">
         <v>37.98452839772582</v>
       </c>
-      <c r="M45" t="n">
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="N45" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376800.6061809955</v>
+        <v>373609.6494672062</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221766</v>
+        <v>2114249.189782365</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179436</v>
+        <v>19492207.60956401</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4901378.246697891</v>
+        <v>5116643.000488906</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -701,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U3" t="n">
-        <v>34.11888750173132</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -832,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>39.58387696184059</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
-        <v>9.977552361264268</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -905,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>26.92232807701203</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -984,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>34.11888750173132</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="G6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1069,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>27.29193749722201</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1142,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.91618947337665</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I8" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1221,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1315,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,16 +1332,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1370,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I11" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1412,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1455,16 +1457,16 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1567,19 +1569,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T13" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1649,19 +1651,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S14" t="n">
-        <v>39.58387696184059</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="T14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1692,16 +1694,16 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1807,16 +1809,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S16" t="n">
-        <v>39.58387696184059</v>
+        <v>42.20118209180435</v>
       </c>
       <c r="T16" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1886,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>44.13217237922859</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>44.13217237922859</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>44.13217237922859</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>38.87161743162454</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1932,16 +1934,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,76 +2080,76 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
+      <c r="H20" t="n">
+        <v>220.8837963815378</v>
+      </c>
+      <c r="I20" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J20" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>212.285385643442</v>
       </c>
     </row>
     <row r="21">
@@ -2157,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2178,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>24.91124646905582</v>
+        <v>82.69355372315668</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2214,19 +2216,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2290,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2360,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2372,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2400,16 +2402,16 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>21.0507685937734</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>35.00246782997241</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -2448,10 +2450,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2518,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2527,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2612,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>202.2946864288972</v>
-      </c>
-      <c r="W26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>56.17030901074568</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2640,19 +2642,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>78.68895450699577</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2682,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2722,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2752,13 +2754,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>44.30348359856706</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2801,61 +2803,61 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,13 +2870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2886,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>109.7364879284881</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3001,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>241.0142888776591</v>
@@ -3038,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3050,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3105,28 +3107,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>46.03546545923035</v>
       </c>
       <c r="D33" t="n">
-        <v>118.5628686044508</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3158,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3174,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3250,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3271,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3278,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3317,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3342,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3360,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>26.18187459043808</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -3393,22 +3395,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>69.1692801483136</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3512,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>220.8837963815379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
@@ -3521,10 +3523,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3548,10 +3550,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3579,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3594,7 +3596,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>39.97466500197062</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3633,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3645,10 +3647,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>142.0523914963076</v>
       </c>
     </row>
     <row r="40">
@@ -3709,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3743,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>46.46083974404437</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3794,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>236.4659934602711</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3819,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3828,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>131.0465786647177</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3876,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3983,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F44" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>39.58387696184059</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3998,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,16 +4021,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>12.92549025883184</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4068,16 +4070,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>33.19332575419072</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4110,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>34.86547882798917</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4177,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4186,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>108.260178376266</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C2" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D2" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E2" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>40.77139327069581</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L2" t="n">
-        <v>40.77139327069581</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M2" t="n">
-        <v>79.95943146291799</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N2" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O2" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>148.2438924791353</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S2" t="n">
-        <v>148.2438924791353</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T2" t="n">
-        <v>148.2438924791353</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U2" t="n">
-        <v>148.2438924791353</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V2" t="n">
-        <v>148.2438924791353</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W2" t="n">
-        <v>148.2438924791353</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X2" t="n">
-        <v>148.2438924791353</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y2" t="n">
-        <v>148.2438924791353</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="C3" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="D3" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="E3" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="F3" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="G3" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="H3" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I3" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L3" t="n">
-        <v>3.166710156947247</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M3" t="n">
-        <v>40.77139327069581</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N3" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O3" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P3" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S3" t="n">
-        <v>78.36807964162378</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T3" t="n">
-        <v>38.38436553875449</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U3" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="V3" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="W3" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="X3" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H4" t="n">
-        <v>93.21247408113457</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I4" t="n">
-        <v>53.22875997826529</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J4" t="n">
-        <v>13.245045875396</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C5" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D5" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E5" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F5" t="n">
-        <v>3.166710156947247</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="G5" t="n">
-        <v>3.166710156947247</v>
+        <v>104.756466833843</v>
       </c>
       <c r="H5" t="n">
-        <v>3.166710156947247</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="I5" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L5" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M5" t="n">
-        <v>40.77139327069581</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N5" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O5" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R5" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S5" t="n">
-        <v>68.2764642733967</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T5" t="n">
-        <v>28.29275017052741</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U5" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V5" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W5" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X5" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F6" t="n">
-        <v>123.8719851183408</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="G6" t="n">
-        <v>83.88827101547153</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="H6" t="n">
-        <v>43.90455691260225</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I6" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L6" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M6" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N6" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="O6" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P6" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H7" t="n">
-        <v>105.6285745504463</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I7" t="n">
-        <v>65.64486044757699</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J7" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F8" t="n">
-        <v>135.1878417126385</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="G8" t="n">
-        <v>95.20412760976917</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="H8" t="n">
-        <v>55.22041350689989</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="I8" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L8" t="n">
-        <v>79.95943146291799</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M8" t="n">
-        <v>79.95943146291799</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N8" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O8" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C9" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D9" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E9" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F9" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="G9" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="H9" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="I9" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L9" t="n">
-        <v>81.54278654139161</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M9" t="n">
-        <v>120.7308247336138</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N9" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T9" t="n">
-        <v>38.38436553875449</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U9" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V9" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W9" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X9" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C10" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D10" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E10" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F10" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G10" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H10" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I10" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>130.4472581485427</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Q10" t="n">
-        <v>90.46354404567346</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="R10" t="n">
-        <v>50.47982994280417</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="S10" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T10" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U10" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V10" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W10" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X10" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="C11" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="D11" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="E11" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="F11" t="n">
-        <v>118.3517937444931</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="G11" t="n">
-        <v>78.36807964162378</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="H11" t="n">
-        <v>38.38436553875449</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L11" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M11" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N11" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O11" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R11" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S11" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T11" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="U11" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="V11" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="W11" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="X11" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="Y11" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E12" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F12" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G12" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L12" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M12" t="n">
-        <v>42.35474834916943</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N12" t="n">
-        <v>81.54278654139161</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O12" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S12" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T12" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>130.4472581485427</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.46354404567346</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="R13" t="n">
-        <v>50.47982994280417</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="S13" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M14" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N14" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O14" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R14" t="n">
-        <v>123.1178524655551</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S14" t="n">
-        <v>83.13413836268582</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T14" t="n">
-        <v>43.15042425981653</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E15" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F15" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G15" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>40.77139327069581</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L15" t="n">
-        <v>40.77139327069581</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M15" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N15" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O15" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P15" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S15" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T15" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.46354404567346</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R16" t="n">
-        <v>50.47982994280417</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S16" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>45.45613755060546</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>45.45613755060546</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>45.45613755060546</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>131.9507376187037</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>87.37278572049297</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>42.79483382228227</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>3.530573790338288</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>3.530573790338288</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>45.45613755060546</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>89.14698820604177</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O18" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>176.5286895169144</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>176.5286895169144</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>176.5286895169144</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>365.4316055857233</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="C21" t="n">
-        <v>190.9785763045963</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="D21" t="n">
-        <v>190.9785763045963</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="E21" t="n">
-        <v>190.9785763045963</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="F21" t="n">
-        <v>44.44401833148123</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="G21" t="n">
-        <v>44.44401833148123</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="H21" t="n">
-        <v>44.44401833148123</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5832,22 +5834,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5862,19 +5864,19 @@
         <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>533.6469426057913</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V21" t="n">
-        <v>533.6469426057913</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W21" t="n">
-        <v>533.6469426057913</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X21" t="n">
-        <v>533.6469426057913</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="Y21" t="n">
-        <v>533.6469426057913</v>
+        <v>102.8099852548154</v>
       </c>
     </row>
     <row r="22">
@@ -5938,19 +5940,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>467.067986854209</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>259.0600686093459</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C24" t="n">
-        <v>259.0600686093459</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="D24" t="n">
-        <v>259.0600686093459</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E24" t="n">
-        <v>259.0600686093459</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F24" t="n">
-        <v>259.0600686093459</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G24" t="n">
         <v>223.7040404982626</v>
@@ -6069,22 +6071,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6096,22 +6098,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U24" t="n">
-        <v>259.0600686093459</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V24" t="n">
-        <v>259.0600686093459</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W24" t="n">
-        <v>259.0600686093459</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X24" t="n">
-        <v>259.0600686093459</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y24" t="n">
-        <v>259.0600686093459</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="25">
@@ -6166,16 +6168,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
         <v>19.28114311021272</v>
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
         <v>19.28114311021272</v>
@@ -6260,16 +6262,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="W26" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="X26" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="Y26" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="W26" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="X26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>588.4532163200711</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>588.4532163200711</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>588.4532163200711</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6309,19 +6311,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>588.4532163200711</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>588.4532163200711</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W27" t="n">
-        <v>588.4532163200711</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X27" t="n">
-        <v>588.4532163200711</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="Y27" t="n">
-        <v>588.4532163200711</v>
+        <v>76.77296163243852</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
         <v>829.5248650203655</v>
@@ -6400,34 +6402,34 @@
         <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6451,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6493,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U29" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V29" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="U29" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="V29" t="n">
-        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>279.0604900729671</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="C30" t="n">
-        <v>279.0604900729671</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="D30" t="n">
-        <v>130.1260804117159</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="E30" t="n">
-        <v>130.1260804117159</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="F30" t="n">
-        <v>130.1260804117159</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="G30" t="n">
-        <v>130.1260804117159</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6552,40 +6554,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V30" t="n">
-        <v>862.8876260635219</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W30" t="n">
-        <v>862.8876260635219</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X30" t="n">
-        <v>655.0361258579891</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y30" t="n">
-        <v>447.2758270930352</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="31">
@@ -6649,13 +6651,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>266.0282188019862</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C32" t="n">
-        <v>22.57944215788615</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D32" t="n">
-        <v>22.57944215788615</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E32" t="n">
-        <v>22.57944215788615</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F32" t="n">
-        <v>22.57944215788615</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G32" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6727,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>509.4769954460863</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>313.4946457291688</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C33" t="n">
-        <v>139.0416164480418</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6804,25 +6806,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W33" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X33" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y33" t="n">
-        <v>481.7099827492369</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="34">
@@ -6898,7 +6900,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
         <v>19.28114311021272</v>
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6965,22 +6967,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>284.787934186969</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C36" t="n">
-        <v>110.334904905842</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="D36" t="n">
-        <v>110.334904905842</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="E36" t="n">
-        <v>110.334904905842</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="F36" t="n">
-        <v>110.334904905842</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="G36" t="n">
-        <v>110.334904905842</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="H36" t="n">
         <v>110.334904905842</v>
@@ -7020,19 +7022,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N36" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>562.4161926976942</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>492.5482329519229</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>492.5482329519229</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X36" t="n">
-        <v>492.5482329519229</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y36" t="n">
-        <v>284.787934186969</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C38" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D38" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E38" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F38" t="n">
-        <v>730.8505943024719</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G38" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7198,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>365.4316055857233</v>
+        <v>612.718391167419</v>
       </c>
       <c r="C39" t="n">
-        <v>365.4316055857233</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D39" t="n">
-        <v>365.4316055857233</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E39" t="n">
-        <v>206.1941505802678</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F39" t="n">
-        <v>59.65959260715275</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7257,19 +7259,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W39" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X39" t="n">
-        <v>533.6469426057913</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y39" t="n">
-        <v>533.6469426057913</v>
+        <v>612.718391167419</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>77.91740987950541</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C41" t="n">
-        <v>77.91740987950541</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D41" t="n">
-        <v>77.91740987950541</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E41" t="n">
-        <v>77.91740987950541</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F41" t="n">
-        <v>77.91740987950541</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G41" t="n">
-        <v>77.91740987950541</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>77.91740987950541</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>30.98726872390504</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>121.932285387744</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>284.1788189362417</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>501.1544461991459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>707.0089684063852</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>856.2039185490332</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>794.4810264257815</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>794.4810264257815</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>794.4810264257815</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>555.6264875770228</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>555.6264875770228</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W41" t="n">
-        <v>555.6264875770228</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X41" t="n">
-        <v>316.7719487282641</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y41" t="n">
-        <v>77.91740987950541</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>325.7405902374616</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C42" t="n">
-        <v>151.2875609563345</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>151.2875609563345</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>151.2875609563345</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.2748395346591</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>144.2748395346591</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>378.3761730603275</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>612.4775065859958</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O42" t="n">
-        <v>693.8259377144041</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P42" t="n">
-        <v>876.4694153277549</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>772.4466292917531</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>772.4466292917531</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>772.4466292917531</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>772.4466292917531</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W42" t="n">
-        <v>533.5920904429944</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X42" t="n">
-        <v>325.7405902374616</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y42" t="n">
-        <v>325.7405902374616</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>46.23140448453466</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>85.41944267675684</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>129.1102933321932</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>95.20412760976917</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C44" t="n">
-        <v>95.20412760976917</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D44" t="n">
-        <v>95.20412760976917</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E44" t="n">
-        <v>95.20412760976917</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F44" t="n">
-        <v>55.22041350689989</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G44" t="n">
-        <v>15.2366994040306</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>15.2366994040306</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>15.2366994040306</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>3.166710156947247</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>3.166710156947247</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>40.77139327069581</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>79.95943146291799</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>119.1474696551402</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>148.2438924791353</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>148.2438924791353</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>108.260178376266</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>95.20412760976917</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>95.20412760976917</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>95.20412760976917</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>95.20412760976917</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X44" t="n">
-        <v>95.20412760976917</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y44" t="n">
-        <v>95.20412760976917</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>43.15042425981653</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C45" t="n">
-        <v>3.166710156947247</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D45" t="n">
-        <v>3.166710156947247</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E45" t="n">
-        <v>3.166710156947247</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F45" t="n">
-        <v>3.166710156947247</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="G45" t="n">
-        <v>3.166710156947247</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H45" t="n">
-        <v>3.166710156947247</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>42.35474834916943</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>81.54278654139161</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>119.1474696551402</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>119.1474696551402</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O45" t="n">
-        <v>119.1474696551402</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>119.1474696551402</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>158.3355078473624</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>158.3355078473624</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>123.1178524655551</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>123.1178524655551</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y45" t="n">
-        <v>83.13413836268582</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>30.48083516466022</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>69.6688733568824</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>108.8569115491046</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>123.1178524655551</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>123.1178524655551</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>123.1178524655551</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>123.1178524655551</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>83.13413836268582</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>258.0743794427063</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>269.9301101891133</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N2" t="n">
-        <v>268.9969405584315</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O2" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M3" t="n">
-        <v>180.1185623197441</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N3" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8219,19 +8221,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>268.3307616249986</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N5" t="n">
-        <v>268.9969405584315</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O5" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P5" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,22 +8300,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>178.1382567417148</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M6" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>182.180121406285</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q6" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8383,7 +8385,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>273.750943367713</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M8" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O8" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P8" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>178.1382567417148</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M9" t="n">
-        <v>181.7179108838589</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N9" t="n">
-        <v>169.3262404810591</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8620,7 +8622,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L11" t="n">
-        <v>273.750943367713</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O11" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P11" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8772,19 +8774,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M12" t="n">
-        <v>181.7179108838589</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N12" t="n">
-        <v>170.9255890451739</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O12" t="n">
-        <v>180.5807728421703</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P12" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8857,7 +8859,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8933,16 +8935,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
-        <v>269.9301101891133</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N14" t="n">
-        <v>267.3975919943167</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O14" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P14" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>175.8259673720848</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M15" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O15" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9094,7 +9096,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>262.4389053482807</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9246,22 +9248,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>175.4738844625619</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>186.728416823673</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9492,13 +9494,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>185.8815939223662</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,22 +9959,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10200,16 +10202,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10668,22 +10670,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N36" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,22 +10907,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M39" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>399.6518023927121</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11142,19 +11144,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>378.6000273822893</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>367.8077055436044</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O42" t="n">
-        <v>224.7663768973821</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>268.3307616249986</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>268.9969405584315</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>269.6820883835273</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>270.8168727171101</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>178.1382567417148</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>180.1185623197441</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11464,7 +11466,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>340.3981121575632</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22559,10 +22561,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22589,10 +22591,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22604,13 +22606,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>330.8594832468445</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22671,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>60.57395719080255</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S3" t="n">
-        <v>132.0992941419972</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T3" t="n">
-        <v>160.580851732981</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U3" t="n">
-        <v>191.8224945792435</v>
+        <v>187.8163559756081</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22720,16 +22722,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>122.643295545599</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I4" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J4" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K4" t="n">
-        <v>12.29193946461858</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22793,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>379.9537176646994</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>226.4708732943921</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22872,19 +22874,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>110.9503248916526</v>
+        <v>106.1975949617593</v>
       </c>
       <c r="G6" t="n">
-        <v>97.75964020137005</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H6" t="n">
-        <v>72.65156727465587</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I6" t="n">
-        <v>49.81275588957449</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22957,13 +22959,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>134.9352350102176</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I7" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J7" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -23030,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>383.9598562683348</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G8" t="n">
-        <v>375.7188605532945</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H8" t="n">
-        <v>299.8909251539266</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I8" t="n">
-        <v>170.8920126085653</v>
+        <v>171.6042721387814</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23109,19 +23111,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>51.27160674604839</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>191.0759032529857</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23203,7 +23205,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>15.01338019972509</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,16 +23220,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1.930990287424243</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.5781662898538</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R10" t="n">
-        <v>137.7095144153289</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S10" t="n">
-        <v>184.4327210751317</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23258,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>336.3919735539278</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23267,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>367.2921687798708</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G11" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>299.8909251539266</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I11" t="n">
-        <v>175.6104107424167</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23300,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23343,16 +23345,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>118.0612034935604</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>77.36996540850728</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>132.8115536722133</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23455,19 +23457,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.930990287424243</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.5781662898538</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R13" t="n">
-        <v>137.7095144153289</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S13" t="n">
-        <v>184.4327210751317</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T13" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23537,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>115.0036391131605</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S14" t="n">
-        <v>169.4361926244048</v>
+        <v>180.1391513691656</v>
       </c>
       <c r="T14" t="n">
-        <v>183.5119726022908</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U14" t="n">
-        <v>211.7617759459959</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23580,16 +23582,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>118.0612034935604</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>77.36996540850728</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>187.0697646493503</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23695,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.5781662898538</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R16" t="n">
-        <v>137.7095144153289</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S16" t="n">
-        <v>184.4327210751317</v>
+        <v>181.8154159451679</v>
       </c>
       <c r="T16" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23774,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>105.7369455619211</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8878972070167</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>178.9636771849028</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>212.474035476212</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23820,16 +23822,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>50.52501541979053</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23856,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23935,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23947,16 +23949,16 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>251.3471928761457</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>242.3908259573624</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>181.5774830098086</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>174.4524809728662</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23981,16 +23983,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>118.5910057342293</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>173.9525530126116</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24045,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24057,7 +24059,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24066,7 +24068,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>64.48538638235925</v>
+        <v>6.703079128258395</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24102,19 +24104,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24178,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24193,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24248,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24260,19 +24262,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24288,16 +24290,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>126.3942969708654</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>102.3410493332382</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -24336,10 +24338,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24406,7 +24408,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24415,10 +24417,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>180.9206650946078</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24500,16 +24502,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>125.4575720412377</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="27">
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>110.3628746391217</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24528,19 +24530,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>78.95612594840517</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,25 +24572,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24610,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24640,13 +24642,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24689,13 +24691,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24731,19 +24733,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,13 +24758,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24774,7 +24776,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>2.49895630800836</v>
+        <v>7.497060989136827</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24889,7 +24891,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24898,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>124.2586028933485</v>
@@ -24926,10 +24928,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24938,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>8.683973297415827</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24965,7 +24967,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24993,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>126.6730335290854</v>
       </c>
       <c r="D33" t="n">
-        <v>28.88219696018795</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25044,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25062,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25138,10 +25140,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25157,7 +25159,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25166,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25205,13 +25207,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25230,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25248,7 +25250,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>86.05356964605838</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25281,22 +25283,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>163.6313070011117</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.75862184291347</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25400,7 +25402,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>185.9922493601736</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
@@ -25409,10 +25411,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25436,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25467,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25482,7 +25484,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>97.36885216124001</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25521,10 +25523,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25533,10 +25535,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>63.6303042809968</v>
       </c>
     </row>
     <row r="40">
@@ -25597,7 +25599,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25606,7 +25608,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25631,7 +25633,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25646,7 +25648,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>164.0150498263615</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,7 +25675,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25682,19 +25684,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>14.87965944756544</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>133.265107218198</v>
+        <v>169.3950043896394</v>
       </c>
       <c r="Y41" t="n">
-        <v>149.7719451957825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25707,7 +25709,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>122.6508037197626</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25716,7 +25718,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>14.02263372866614</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25755,7 +25757,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25764,16 +25766,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>15.22898970064855</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25871,13 +25873,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
-        <v>367.2921687798708</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>375.7188605532945</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25886,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,16 +25909,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>210.1703593052995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25941,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>126.9493066880268</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25956,16 +25958,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>104.1501914090199</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25998,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>216.8295043329304</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>166.0988188154638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26065,7 +26067,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>76.18449089043011</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
         <v>177.2933913771695</v>
@@ -26074,16 +26076,16 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U46" t="n">
-        <v>246.7351523946503</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>212.5537663619874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>246.9391213747504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355268.3982687963</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355268.3982687963</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355268.3982687964</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355268.3982687963</v>
+        <v>358659.0160535968</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355268.3982687963</v>
+        <v>358659.0160535968</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358659.0160535965</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495251.8800453863</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355268.3982687963</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59211.39971146602</v>
+        <v>59776.50267559937</v>
       </c>
       <c r="C2" t="n">
-        <v>59211.39971146603</v>
+        <v>59776.50267559939</v>
       </c>
       <c r="D2" t="n">
-        <v>59211.39971146603</v>
+        <v>59776.50267559939</v>
       </c>
       <c r="E2" t="n">
-        <v>59211.39971146601</v>
+        <v>59776.50267559937</v>
       </c>
       <c r="F2" t="n">
-        <v>59211.399711466</v>
+        <v>59776.50267559938</v>
       </c>
       <c r="G2" t="n">
-        <v>59776.50267559938</v>
+        <v>83080.33626566615</v>
       </c>
       <c r="H2" t="n">
-        <v>83080.33626566615</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="I2" t="n">
         <v>83080.33626566618</v>
       </c>
       <c r="J2" t="n">
-        <v>83080.33626566619</v>
+        <v>83080.33626566616</v>
       </c>
       <c r="K2" t="n">
-        <v>83080.33626566615</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="L2" t="n">
         <v>83080.33626566618</v>
@@ -26347,13 +26349,13 @@
         <v>83080.33626566618</v>
       </c>
       <c r="N2" t="n">
+        <v>83080.33626566618</v>
+      </c>
+      <c r="O2" t="n">
+        <v>83080.33626566618</v>
+      </c>
+      <c r="P2" t="n">
         <v>83080.33626566621</v>
-      </c>
-      <c r="O2" t="n">
-        <v>82541.98000756433</v>
-      </c>
-      <c r="P2" t="n">
-        <v>59211.39971146602</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.46759908291</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1246.619549474791</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.41106180436364</v>
+        <v>36.87052286425572</v>
       </c>
       <c r="C4" t="n">
-        <v>33.41106180436364</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="D4" t="n">
-        <v>33.41106180436364</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="E4" t="n">
-        <v>33.41106180436364</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="F4" t="n">
-        <v>33.41106180436364</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="G4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
         <v>179.5324977039669</v>
@@ -26442,22 +26444,22 @@
         <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
         <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
         <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>176.2367752791008</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
-        <v>33.41106180436363</v>
+        <v>179.5324977039669</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14377.13240238448</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2406.699719279908</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9878.221331298839</v>
+        <v>8639.090067833793</v>
       </c>
       <c r="C6" t="n">
-        <v>23143.68893038176</v>
+        <v>23428.79607207803</v>
       </c>
       <c r="D6" t="n">
-        <v>23143.68893038176</v>
+        <v>23428.79607207803</v>
       </c>
       <c r="E6" t="n">
-        <v>56771.28893038174</v>
+        <v>57056.39607207801</v>
       </c>
       <c r="F6" t="n">
-        <v>56771.28893038173</v>
+        <v>57056.39607207802</v>
       </c>
       <c r="G6" t="n">
-        <v>55809.77652260324</v>
+        <v>14284.70010372819</v>
       </c>
       <c r="H6" t="n">
-        <v>15126.56803387548</v>
+        <v>68247.13500420057</v>
       </c>
       <c r="I6" t="n">
         <v>68247.13500420054</v>
       </c>
       <c r="J6" t="n">
-        <v>57890.25110039674</v>
+        <v>56700.21689420963</v>
       </c>
       <c r="K6" t="n">
-        <v>68247.13500420051</v>
+        <v>68247.13500420054</v>
       </c>
       <c r="L6" t="n">
         <v>68247.13500420054</v>
@@ -26555,13 +26557,13 @@
         <v>68247.13500420054</v>
       </c>
       <c r="N6" t="n">
+        <v>68247.13500420054</v>
+      </c>
+      <c r="O6" t="n">
+        <v>20867.25678673675</v>
+      </c>
+      <c r="P6" t="n">
         <v>68247.13500420057</v>
-      </c>
-      <c r="O6" t="n">
-        <v>67988.61082990075</v>
-      </c>
-      <c r="P6" t="n">
-        <v>56771.28893038175</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>196.8821164984305</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M3" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34939,19 +34941,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N5" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M6" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M9" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N9" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L11" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N12" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O12" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35653,16 +35655,16 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N14" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>42.34905430330018</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O17" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35966,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>44.13217237922859</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36212,13 +36214,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>43.28534947792182</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,22 +36679,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36920,16 +36922,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37388,22 +37390,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N36" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37625,22 +37627,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M39" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,7 +37785,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>163.8853874227249</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
         <v>219.1673002655598</v>
@@ -37862,19 +37864,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>236.4659934602711</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O42" t="n">
-        <v>82.17013245293764</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>37.98452839772582</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>39.58387696184059</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>39.58387696184059</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>39.58387696184059</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>39.58387696184059</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>37.98452839772582</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373609.6494672062</v>
+        <v>268277.9841761546</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2114249.189782365</v>
+        <v>925399.3994514376</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19492207.60956401</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5116643.000488906</v>
+        <v>5764008.847562067</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -703,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>44.13217237922859</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="X2" t="n">
-        <v>38.87161743162454</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>44.13217237922859</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>44.13217237922859</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>38.12502610536669</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>117.7259878520199</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,22 +904,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>26.92232807701203</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -980,22 +980,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>58.64124924790688</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>38.87161743162455</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1071,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>22.65313100102799</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>51.86683734433478</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>38.12502610536669</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1332,16 +1332,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>28.88091821707974</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="12">
@@ -1451,13 +1451,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>23.81390751390911</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1496,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>44.13217237922859</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>44.13217237922859</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1569,16 +1569,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>28.88091821707974</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>44.13217237922859</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>84.5967326557347</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1806,16 +1806,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V17" t="n">
-        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -1985,10 +1985,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2092,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>220.8837963815378</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>82.69355372315668</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,13 +2213,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="22">
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2362,13 +2362,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>241.0142888776591</v>
@@ -2402,25 +2402,25 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>21.0507685937734</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>65.13060206523731</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2554,65 +2554,65 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J26" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>39.77286532336502</v>
+      </c>
+      <c r="S26" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T26" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>56.17030901074568</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2693,7 +2693,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2702,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2754,13 +2754,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>44.30348359856706</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,70 +2791,70 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>90.38893773807641</v>
+      </c>
+      <c r="J29" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S29" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2876,25 +2876,25 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>11.0547771745876</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2921,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3073,13 +3073,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3110,28 +3110,28 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>46.03546545923035</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>29.1427070647979</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3164,19 +3164,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,62 +3268,62 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>11.19305615617957</v>
+      </c>
+      <c r="S35" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T35" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3362,10 +3362,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>26.18187459043808</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -3401,10 +3401,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>52.42556848774752</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>114.9581870864144</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3587,16 +3587,16 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3635,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>61.68827609322839</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>142.0523914963076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3720,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,19 +3745,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>240.2580556792261</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3784,28 +3784,28 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3881,7 +3881,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>90.16066412513263</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3985,17 +3985,17 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="G44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F44" t="n">
+      <c r="H44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G44" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4070,13 +4070,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>33.19332575419072</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4121,10 +4121,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="46">
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>3.530573790338288</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>45.45613755060546</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>131.9507376187037</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>131.9507376187037</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>131.9507376187037</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>131.9507376187037</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>87.37278572049297</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>42.79483382228227</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.284706443124001</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C3" t="n">
-        <v>4.284706443124001</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>4.284706443124001</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>4.284706443124001</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>4.284706443124001</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>4.284706443124001</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>4.284706443124001</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>4.284706443124001</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>89.14698820604177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>132.8378388614781</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N3" t="n">
-        <v>132.8378388614781</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>87.37278572049297</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>42.79483382228227</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>4.284706443124001</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V3" t="n">
-        <v>4.284706443124001</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W3" t="n">
-        <v>4.284706443124001</v>
+        <v>570.5551422697263</v>
       </c>
       <c r="X3" t="n">
-        <v>4.284706443124001</v>
+        <v>362.7036420641935</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.284706443124001</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>149.3344187320537</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>104.756466833843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>60.17851493563234</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U5" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V5" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X5" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y5" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>176.5286895169144</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C6" t="n">
-        <v>176.5286895169144</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D6" t="n">
-        <v>176.5286895169144</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E6" t="n">
-        <v>176.5286895169144</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F6" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>47.22142444577459</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N6" t="n">
-        <v>47.22142444577459</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>89.14698820604177</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>176.5286895169144</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W6" t="n">
-        <v>176.5286895169144</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X6" t="n">
-        <v>176.5286895169144</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y6" t="n">
-        <v>176.5286895169144</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C8" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F8" t="n">
-        <v>131.9507376187037</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>45.45613755060546</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>45.45613755060546</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T8" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U8" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V8" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W8" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X8" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y8" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>89.14698820604177</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>132.8378388614781</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>176.5286895169144</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>176.5286895169144</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V9" t="n">
-        <v>176.5286895169144</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W9" t="n">
-        <v>176.5286895169144</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X9" t="n">
-        <v>176.5286895169144</v>
+        <v>279.432186667424</v>
       </c>
       <c r="Y9" t="n">
-        <v>176.5286895169144</v>
+        <v>71.67188790247008</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>92.68647758675968</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>166.4370741486873</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>137.2644294849704</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D11" t="n">
-        <v>137.2644294849704</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E11" t="n">
-        <v>137.2644294849704</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F11" t="n">
-        <v>92.68647758675968</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>47.22142444577459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>166.4370741486873</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T11" t="n">
-        <v>166.4370741486873</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U11" t="n">
-        <v>166.4370741486873</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V11" t="n">
-        <v>166.4370741486873</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W11" t="n">
-        <v>166.4370741486873</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X11" t="n">
-        <v>166.4370741486873</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y11" t="n">
-        <v>166.4370741486873</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.530573790338288</v>
+        <v>217.7886244255914</v>
       </c>
       <c r="C12" t="n">
-        <v>3.530573790338288</v>
+        <v>43.33559514446435</v>
       </c>
       <c r="D12" t="n">
-        <v>3.530573790338288</v>
+        <v>43.33559514446435</v>
       </c>
       <c r="E12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>90.91227510121089</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N12" t="n">
-        <v>132.8378388614781</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>92.68647758675968</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>48.10852568854899</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U12" t="n">
-        <v>3.530573790338288</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V12" t="n">
-        <v>3.530573790338288</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W12" t="n">
-        <v>3.530573790338288</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="X12" t="n">
-        <v>3.530573790338288</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.530573790338288</v>
+        <v>217.7886244255914</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>92.68647758675968</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>3.530573790338288</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>45.45613755060546</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>121.8591222504766</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>92.68647758675968</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T14" t="n">
-        <v>48.10852568854899</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U14" t="n">
-        <v>3.530573790338288</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V14" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W14" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X14" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.530573790338288</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C15" t="n">
-        <v>3.530573790338288</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D15" t="n">
-        <v>3.530573790338288</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E15" t="n">
-        <v>3.530573790338288</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F15" t="n">
-        <v>3.530573790338288</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>47.22142444577459</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>89.14698820604177</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>89.14698820604177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>87.37278572049297</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>42.79483382228227</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U15" t="n">
-        <v>3.530573790338288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V15" t="n">
-        <v>3.530573790338288</v>
+        <v>777.4363809567192</v>
       </c>
       <c r="W15" t="n">
-        <v>3.530573790338288</v>
+        <v>533.9876043126192</v>
       </c>
       <c r="X15" t="n">
-        <v>3.530573790338288</v>
+        <v>533.9876043126192</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.530573790338288</v>
+        <v>326.2273055476653</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5542,25 +5542,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="19">
@@ -5697,13 +5697,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5776,28 +5776,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5834,16 +5834,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5861,22 +5861,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>761.8705608694022</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>518.4217842253022</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>310.5702840197694</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y21" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5940,19 +5940,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
         <v>19.28114311021272</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="X23" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="Y23" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="X23" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6077,13 +6077,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>689.4702815141908</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>689.4702815141908</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X24" t="n">
-        <v>689.4702815141908</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I25" t="n">
         <v>19.28114311021272</v>
@@ -6180,19 +6180,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>923.8825440728938</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>712.7511606524439</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="W26" t="n">
-        <v>953.9655401424092</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="X26" t="n">
-        <v>953.9655401424092</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="Y26" t="n">
-        <v>749.627473042513</v>
+        <v>243.9530410142718</v>
       </c>
     </row>
     <row r="27">
@@ -6311,16 +6311,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V27" t="n">
-        <v>735.8335372470253</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W27" t="n">
-        <v>492.3847606029253</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X27" t="n">
-        <v>284.5332603973924</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y27" t="n">
-        <v>76.77296163243852</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>874.2758585542716</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>125.0774898247174</v>
+        <v>318.8669524321267</v>
       </c>
       <c r="C30" t="n">
-        <v>125.0774898247174</v>
+        <v>318.8669524321267</v>
       </c>
       <c r="D30" t="n">
-        <v>125.0774898247174</v>
+        <v>169.9325427708754</v>
       </c>
       <c r="E30" t="n">
-        <v>125.0774898247174</v>
+        <v>169.9325427708754</v>
       </c>
       <c r="F30" t="n">
-        <v>125.0774898247174</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G30" t="n">
-        <v>125.0774898247174</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>360.2295980564601</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V30" t="n">
-        <v>125.0774898247174</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W30" t="n">
-        <v>125.0774898247174</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="X30" t="n">
-        <v>125.0774898247174</v>
+        <v>318.8669524321267</v>
       </c>
       <c r="Y30" t="n">
-        <v>125.0774898247174</v>
+        <v>318.8669524321267</v>
       </c>
     </row>
     <row r="31">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
         <v>19.28114311021272</v>
@@ -6660,13 +6660,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>862.8876260635219</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="C33" t="n">
-        <v>816.3871559026832</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="D33" t="n">
-        <v>667.4527462414319</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="E33" t="n">
-        <v>508.2152912359765</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="F33" t="n">
-        <v>361.6807332628614</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="G33" t="n">
-        <v>222.9499078454769</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="H33" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6791,7 +6791,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
         <v>964.0571555106362</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>862.8876260635219</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>862.8876260635219</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>862.8876260635219</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y33" t="n">
-        <v>862.8876260635219</v>
+        <v>49.47235360622864</v>
       </c>
     </row>
     <row r="34">
@@ -6882,22 +6882,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
         <v>19.28114311021272</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>136.7812428759814</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>136.7812428759814</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>136.7812428759814</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>136.7812428759814</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>136.7812428759814</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>136.7812428759814</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
         <v>20.03527576299844</v>
@@ -7022,19 +7022,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7049,19 +7049,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W36" t="n">
-        <v>720.6083788665362</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X36" t="n">
-        <v>512.7568786610034</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y36" t="n">
-        <v>304.9965798960495</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C38" t="n">
-        <v>749.627473042513</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D38" t="n">
-        <v>749.627473042513</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E38" t="n">
-        <v>749.627473042513</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7201,25 +7201,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>612.718391167419</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>612.718391167419</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>463.7839815061678</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>304.5465265007123</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7283,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W39" t="n">
-        <v>964.0571555106362</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X39" t="n">
-        <v>756.2056553051034</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y39" t="n">
-        <v>612.718391167419</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>517.4848137278872</v>
+      </c>
+      <c r="C41" t="n">
+        <v>517.4848137278872</v>
+      </c>
+      <c r="D41" t="n">
+        <v>517.4848137278872</v>
+      </c>
+      <c r="E41" t="n">
         <v>274.7999090013961</v>
       </c>
-      <c r="C41" t="n">
+      <c r="F41" t="n">
         <v>274.7999090013961</v>
       </c>
-      <c r="D41" t="n">
-        <v>31.35113235729608</v>
-      </c>
-      <c r="E41" t="n">
-        <v>31.35113235729608</v>
-      </c>
-      <c r="F41" t="n">
-        <v>31.35113235729608</v>
-      </c>
       <c r="G41" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H41" t="n">
         <v>31.35113235729608</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V41" t="n">
-        <v>720.6083788665362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W41" t="n">
-        <v>477.1596022224361</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X41" t="n">
-        <v>274.7999090013961</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y41" t="n">
-        <v>274.7999090013961</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7499,16 +7499,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N42" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7520,22 +7520,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V42" t="n">
-        <v>728.9050472788936</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W42" t="n">
-        <v>485.4562706347935</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X42" t="n">
-        <v>277.6047704292607</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y42" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="43">
@@ -7593,19 +7593,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="C44" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="D44" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="E44" t="n">
-        <v>477.1596022224361</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="F44" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7678,22 +7678,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W44" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X44" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y44" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
         <v>20.03527576299844</v>
@@ -7730,19 +7730,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N45" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7769,10 +7769,10 @@
         <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>257.2326523711826</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7836,13 +7836,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
         <v>19.28114311021272</v>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>180.9034340831744</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6865521591028</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>184.9452987477446</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>278.1154692732874</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4738844625619</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O9" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>186.2662063012469</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N12" t="n">
-        <v>173.6907663866335</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>173.6907663866335</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,19 +9482,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9725,16 +9725,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O24" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9959,19 +9959,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,16 +10202,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10439,10 +10439,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O33" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10670,13 +10670,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11147,19 +11147,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N42" t="n">
-        <v>174.6270615612551</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22591,10 +22591,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22606,16 +22606,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>283.6200860909063</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>305.1087963381844</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X2" t="n">
-        <v>330.8594832468445</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22625,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>56.02566177341454</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>127.5509987246092</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>187.8163559756081</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>133.9689953088998</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22722,16 +22722,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22764,7 +22764,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,22 +22792,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>379.9537176646994</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22837,7 +22837,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22868,22 +22868,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>88.80381631673187</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>106.1975949617593</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22922,10 +22922,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22959,16 +22959,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>139.5740415064116</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I7" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23032,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>362.7438733624829</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>371.1705651359065</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>171.6042721387814</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23065,13 +23065,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>114.6663463055326</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23111,19 +23111,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>51.27160674604839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -23165,10 +23165,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23220,16 +23220,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.930990287424243</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>336.3919735539278</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23269,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>362.7438733624829</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23339,13 +23339,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>133.8311729414918</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23384,19 +23384,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>56.02566177341454</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>132.8115536722133</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>156.032556315593</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23405,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23457,16 +23457,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.930990287424243</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>133.1612189979409</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S13" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23497,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>180.1391513691656</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>207.2134805286079</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23588,7 +23588,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>56.02566177341454</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>187.0697646493503</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>148.2038544936906</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23670,7 +23670,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I16" t="n">
         <v>155.4504749272583</v>
@@ -23694,16 +23694,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>181.8154159451679</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23746,7 +23746,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23834,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>171.1123110561968</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23873,10 +23873,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23937,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23946,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23980,19 +23980,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>118.5910057342293</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24016,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24068,7 +24068,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>6.703079128258395</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24101,13 +24101,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="22">
@@ -24180,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24217,10 +24217,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24250,13 +24250,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24265,13 +24265,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>145.2236497783945</v>
@@ -24290,25 +24290,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>126.3942969708654</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>186.5643810956823</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24384,7 +24384,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J25" t="n">
         <v>93.35918011667277</v>
@@ -24420,7 +24420,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24463,10 +24463,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>110.0962526177847</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>110.3628746391217</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>71.10541651401829</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24581,7 +24581,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24642,13 +24642,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24691,7 +24691,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24700,10 +24700,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>120.0869518323295</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,25 +24724,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24764,25 +24764,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>134.0144352187963</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>7.497060989136827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24809,13 +24809,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24824,7 +24824,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24919,7 +24919,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24931,7 +24931,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24961,13 +24961,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24998,28 +24998,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>126.6730335290854</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>83.09273717169856</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25052,19 +25052,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25122,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25156,10 +25156,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25198,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25250,10 +25250,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>86.05356964605838</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25289,10 +25289,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
@@ -25362,10 +25362,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T37" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25402,16 +25402,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>156.5945010984978</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>212.7940713837205</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25475,16 +25475,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25523,22 +25523,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>171.1123110561969</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>63.6303042809968</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25608,10 +25608,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25633,10 +25633,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>141.6723143930357</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25645,7 +25645,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25672,28 +25672,28 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>169.3950043896394</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25709,7 +25709,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>122.6508037197626</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25760,7 +25760,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25769,7 +25769,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>161.534319035787</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25873,16 +25873,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>176.6722207847417</v>
       </c>
       <c r="G44" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25918,7 +25918,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25958,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>104.1501914090199</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26009,10 +26009,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="46">
@@ -26076,7 +26076,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358659.0160535968</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358659.0160535968</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939973</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939974</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939973</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939973</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939974</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59776.50267559937</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="C2" t="n">
-        <v>59776.50267559939</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="D2" t="n">
-        <v>59776.50267559939</v>
+        <v>83080.33626566615</v>
       </c>
       <c r="E2" t="n">
-        <v>59776.50267559937</v>
+        <v>83080.33626566615</v>
       </c>
       <c r="F2" t="n">
-        <v>59776.50267559938</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="G2" t="n">
-        <v>83080.33626566615</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="H2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="I2" t="n">
         <v>83080.33626566618</v>
       </c>
       <c r="J2" t="n">
-        <v>83080.33626566616</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="K2" t="n">
         <v>83080.33626566618</v>
       </c>
       <c r="L2" t="n">
-        <v>83080.33626566618</v>
+        <v>83080.33626566615</v>
       </c>
       <c r="M2" t="n">
-        <v>83080.33626566618</v>
+        <v>83080.33626566624</v>
       </c>
       <c r="N2" t="n">
         <v>83080.33626566618</v>
       </c>
       <c r="O2" t="n">
+        <v>83080.33626566621</v>
+      </c>
+      <c r="P2" t="n">
         <v>83080.33626566618</v>
-      </c>
-      <c r="P2" t="n">
-        <v>83080.33626566621</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53962.43490047232</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47379.87821746379</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.87052286425572</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="C4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="D4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="F4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="G4" t="n">
         <v>179.5324977039669</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8639.090067833793</v>
+        <v>-58367.90714738762</v>
       </c>
       <c r="C6" t="n">
-        <v>23428.79607207803</v>
+        <v>22401.52438416007</v>
       </c>
       <c r="D6" t="n">
-        <v>23428.79607207803</v>
+        <v>22401.52438416005</v>
       </c>
       <c r="E6" t="n">
-        <v>57056.39607207801</v>
+        <v>56029.12438416004</v>
       </c>
       <c r="F6" t="n">
-        <v>57056.39607207802</v>
+        <v>56029.1243841601</v>
       </c>
       <c r="G6" t="n">
-        <v>14284.70010372819</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="H6" t="n">
-        <v>68247.13500420057</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="I6" t="n">
-        <v>68247.13500420054</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="J6" t="n">
-        <v>56700.21689420963</v>
+        <v>-7030.818214946155</v>
       </c>
       <c r="K6" t="n">
-        <v>68247.13500420054</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="L6" t="n">
-        <v>68247.13500420054</v>
+        <v>56029.12438416004</v>
       </c>
       <c r="M6" t="n">
-        <v>68247.13500420054</v>
+        <v>56029.12438416012</v>
       </c>
       <c r="N6" t="n">
-        <v>68247.13500420054</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="O6" t="n">
-        <v>20867.25678673675</v>
+        <v>56029.1243841601</v>
       </c>
       <c r="P6" t="n">
-        <v>68247.13500420057</v>
+        <v>56029.12438416007</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>42.34905430330018</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O2" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>42.34905430330019</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>42.34905430330018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>44.13217237922859</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O9" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>42.34905430330018</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>44.13217237922859</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N12" t="n">
-        <v>42.34905430330019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>42.34905430330018</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O14" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>42.34905430330018</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35895,10 +35895,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>226.4350751681936</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>55.51629994036219</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36445,16 +36445,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N24" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36679,19 +36679,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
@@ -36922,16 +36922,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O30" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37159,10 +37159,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
+        <v>113.3808631277494</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O33" t="n">
-        <v>113.3808631277494</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37405,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37867,19 +37867,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N42" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N45" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O45" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>268277.9841761546</v>
+        <v>362272.948523882</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514376</v>
+        <v>2114249.189782367</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>19492207.609564</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5764008.847562067</v>
+        <v>5116643.000488905</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>202.2946864288972</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="3">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="W3" t="n">
-        <v>117.7259878520199</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V4" t="n">
-        <v>133.186967585368</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -940,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T5" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>38.87161743162454</v>
       </c>
     </row>
     <row r="6">
@@ -977,22 +977,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D6" t="n">
-        <v>58.64124924790688</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>51.86683734433478</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1220,13 +1220,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>241.0142888776591</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1414,13 +1414,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S11" t="n">
-        <v>52.42556848774752</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,13 +1451,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>23.81390751390911</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>241.0142888776591</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="V14" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="V15" t="n">
-        <v>84.5967326557347</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1888,19 +1888,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>92.95466700954542</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
         <v>241.0142888776591</v>
@@ -1940,13 +1940,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>46.01752716430177</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>29.05241763862484</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -1988,7 +1988,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2125,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
         <v>241.0142888776591</v>
@@ -2159,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>46.03546545923035</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2216,19 +2216,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>241.0142888776591</v>
@@ -2362,31 +2362,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2411,13 +2411,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>33.93991708044859</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2459,13 +2459,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>65.13060206523731</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2496,34 +2496,34 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2569,16 +2569,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>39.77286532336502</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -2614,7 +2614,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>29.05241763862484</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>190.23914516611</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2803,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>82.46119763909351</v>
       </c>
       <c r="I29" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -2845,10 +2845,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2882,16 +2882,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>11.0547771745876</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2930,16 +2930,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>73.73739355953819</v>
       </c>
     </row>
     <row r="31">
@@ -2952,67 +2952,67 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3073,16 +3073,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>52.42556848774752</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3113,25 +3113,25 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>88.12692860372137</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>29.1427070647979</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
@@ -3310,28 +3310,28 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>49.3111039422953</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3410,10 +3410,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>97.48188567889163</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3547,22 +3547,22 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V38" t="n">
-        <v>114.9581870864144</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3596,10 +3596,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>61.68827609322839</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>72.1405108741357</v>
       </c>
     </row>
     <row r="40">
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3748,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>240.2580556792261</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
-        <v>241.0142888776591</v>
+        <v>68.3854176612075</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3784,13 +3784,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -3833,16 +3833,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>123.3365499318637</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3872,22 +3872,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>90.16066412513263</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3985,16 +3985,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="F44" t="n">
-        <v>230.2038249569697</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>146.175361316945</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4076,10 +4076,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4121,10 +4121,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W2" t="n">
-        <v>749.627473042513</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X2" t="n">
-        <v>506.1786963984129</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y2" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>194.4883050441255</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M3" t="n">
-        <v>257.8852890990952</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T3" t="n">
-        <v>689.4702815141908</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U3" t="n">
-        <v>689.4702815141908</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="V3" t="n">
-        <v>689.4702815141908</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W3" t="n">
-        <v>570.5551422697263</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X3" t="n">
-        <v>362.7036420641935</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y3" t="n">
-        <v>362.7036420641935</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C5" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D5" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T5" t="n">
-        <v>749.627473042513</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U5" t="n">
-        <v>749.627473042513</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V5" t="n">
-        <v>749.627473042513</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W5" t="n">
-        <v>749.627473042513</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X5" t="n">
-        <v>749.627473042513</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.1786963984129</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>384.2867411876791</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C6" t="n">
-        <v>384.2867411876791</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D6" t="n">
-        <v>325.0531560887832</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E6" t="n">
-        <v>165.8157010833278</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V6" t="n">
-        <v>627.7355178317791</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W6" t="n">
-        <v>384.2867411876791</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X6" t="n">
-        <v>384.2867411876791</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y6" t="n">
-        <v>384.2867411876791</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>506.1786963984129</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="C8" t="n">
-        <v>506.1786963984129</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="D8" t="n">
-        <v>506.1786963984129</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="E8" t="n">
-        <v>506.1786963984129</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S8" t="n">
-        <v>749.627473042513</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T8" t="n">
-        <v>749.627473042513</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="U8" t="n">
-        <v>749.627473042513</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="V8" t="n">
-        <v>749.627473042513</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="W8" t="n">
-        <v>749.627473042513</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="X8" t="n">
-        <v>749.627473042513</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.1786963984129</v>
+        <v>121.8591222504766</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U9" t="n">
-        <v>487.2836868729568</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V9" t="n">
-        <v>487.2836868729568</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W9" t="n">
-        <v>487.2836868729568</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X9" t="n">
-        <v>279.432186667424</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y9" t="n">
-        <v>71.67188790247008</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>506.1786963984129</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C11" t="n">
-        <v>506.1786963984129</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D11" t="n">
-        <v>506.1786963984129</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="E11" t="n">
-        <v>506.1786963984129</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F11" t="n">
-        <v>262.7299197543128</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L11" t="n">
-        <v>302.3720006057937</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M11" t="n">
-        <v>519.3476278686978</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N11" t="n">
-        <v>725.2021500759372</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O11" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P11" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S11" t="n">
-        <v>749.627473042513</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T11" t="n">
-        <v>749.627473042513</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U11" t="n">
-        <v>749.627473042513</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V11" t="n">
-        <v>749.627473042513</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W11" t="n">
-        <v>749.627473042513</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X11" t="n">
-        <v>749.627473042513</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y11" t="n">
-        <v>506.1786963984129</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>217.7886244255914</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C12" t="n">
-        <v>43.33559514446435</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D12" t="n">
-        <v>43.33559514446435</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M12" t="n">
-        <v>486.8488635328713</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N12" t="n">
-        <v>725.4530095217538</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S12" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T12" t="n">
-        <v>660.701031422288</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U12" t="n">
-        <v>660.701031422288</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V12" t="n">
-        <v>425.5489231905453</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W12" t="n">
-        <v>425.5489231905453</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X12" t="n">
-        <v>425.5489231905453</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y12" t="n">
-        <v>217.7886244255914</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>262.7299197543128</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C14" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>122.2961490211351</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L14" t="n">
-        <v>302.3720006057937</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M14" t="n">
-        <v>519.3476278686978</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N14" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O14" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P14" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R14" t="n">
-        <v>953.9655401424092</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S14" t="n">
-        <v>953.9655401424092</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="T14" t="n">
-        <v>953.9655401424092</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U14" t="n">
-        <v>710.516763498309</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V14" t="n">
-        <v>506.1786963984129</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W14" t="n">
-        <v>506.1786963984129</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X14" t="n">
-        <v>506.1786963984129</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y14" t="n">
-        <v>262.7299197543128</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>158.0119685275972</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C15" t="n">
-        <v>158.0119685275972</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D15" t="n">
-        <v>158.0119685275972</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E15" t="n">
-        <v>158.0119685275972</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F15" t="n">
-        <v>158.0119685275972</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T15" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U15" t="n">
-        <v>862.8876260635219</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V15" t="n">
-        <v>777.4363809567192</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W15" t="n">
-        <v>533.9876043126192</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X15" t="n">
-        <v>533.9876043126192</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y15" t="n">
-        <v>326.2273055476653</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C17" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D17" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E17" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F17" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>731.528039392485</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T17" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U17" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V17" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="W17" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X17" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5603,13 +5603,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>934.7112791079849</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>706.487660844374</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V18" t="n">
-        <v>471.3355526126313</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W18" t="n">
-        <v>227.8867759685313</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X18" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="19">
@@ -5703,7 +5703,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W20" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5840,7 +5840,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
         <v>542.809531908403</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>500.6814290152826</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W21" t="n">
-        <v>257.2326523711826</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X21" t="n">
-        <v>49.38115216564972</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="22">
@@ -5934,10 +5934,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
         <v>19.28114311021272</v>
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
         <v>262.7299197543128</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6080,13 +6080,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6107,13 +6107,13 @@
         <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>434.8929420806995</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>227.0414418751666</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
         <v>19.28114311021272</v>
@@ -6171,28 +6171,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>923.8825440728938</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>712.7511606524439</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T26" t="n">
-        <v>487.4018176583718</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U26" t="n">
-        <v>243.9530410142718</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="V26" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20.03527576299844</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6311,46 +6311,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>934.7112791079849</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>934.7112791079849</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>934.7112791079849</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>706.487660844374</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="V27" t="n">
-        <v>471.3355526126313</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="W27" t="n">
-        <v>227.8867759685313</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="X27" t="n">
-        <v>20.03527576299844</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y27" t="n">
-        <v>20.03527576299844</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
         <v>19.28114311021272</v>
@@ -6423,13 +6423,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>122.6530896684844</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="C29" t="n">
-        <v>122.6530896684844</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="D29" t="n">
-        <v>122.6530896684844</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="E29" t="n">
-        <v>122.6530896684844</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="F29" t="n">
-        <v>122.6530896684844</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="G29" t="n">
-        <v>122.6530896684844</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="H29" t="n">
-        <v>122.6530896684844</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
         <v>31.35113235729608</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T29" t="n">
-        <v>366.1018663125844</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U29" t="n">
-        <v>122.6530896684844</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V29" t="n">
-        <v>122.6530896684844</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W29" t="n">
-        <v>122.6530896684844</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X29" t="n">
-        <v>122.6530896684844</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y29" t="n">
-        <v>122.6530896684844</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>318.8669524321267</v>
+        <v>519.1730081326289</v>
       </c>
       <c r="C30" t="n">
-        <v>318.8669524321267</v>
+        <v>519.1730081326289</v>
       </c>
       <c r="D30" t="n">
-        <v>169.9325427708754</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="E30" t="n">
-        <v>169.9325427708754</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F30" t="n">
-        <v>158.7661011803829</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6545,22 +6545,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N30" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>909.0960185696777</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6578,16 +6578,16 @@
         <v>761.8705608694022</v>
       </c>
       <c r="V30" t="n">
-        <v>526.7184526376595</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W30" t="n">
-        <v>526.7184526376595</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X30" t="n">
-        <v>318.8669524321267</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y30" t="n">
-        <v>318.8669524321267</v>
+        <v>687.388345152697</v>
       </c>
     </row>
     <row r="31">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
         <v>19.28114311021272</v>
@@ -6660,13 +6660,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6721,28 +6721,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
         <v>506.1786963984129</v>
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>49.47235360622864</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C33" t="n">
-        <v>49.47235360622864</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D33" t="n">
-        <v>49.47235360622864</v>
+        <v>108.2982427099313</v>
       </c>
       <c r="E33" t="n">
-        <v>49.47235360622864</v>
+        <v>108.2982427099313</v>
       </c>
       <c r="F33" t="n">
-        <v>49.47235360622864</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>49.47235360622864</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6791,7 +6791,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
         <v>964.0571555106362</v>
@@ -6824,7 +6824,7 @@
         <v>257.2326523711826</v>
       </c>
       <c r="Y33" t="n">
-        <v>49.47235360622864</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="34">
@@ -6882,13 +6882,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
         <v>19.28114311021272</v>
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F35" t="n">
         <v>262.7299197543128</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>942.6594228129348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W35" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="X35" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="U35" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="V35" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="W35" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X35" t="n">
-        <v>262.7299197543128</v>
-      </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G36" t="n">
         <v>20.03527576299844</v>
@@ -7022,16 +7022,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7049,19 +7049,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>914.2479596093278</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>679.0958513775852</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>435.6470747334852</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>227.7955745279523</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="Y36" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
     </row>
     <row r="37">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>348.0024326625565</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W38" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H39" t="n">
         <v>20.03527576299844</v>
@@ -7280,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V39" t="n">
-        <v>471.3355526126313</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W39" t="n">
-        <v>227.8867759685313</v>
+        <v>345.004439675971</v>
       </c>
       <c r="X39" t="n">
-        <v>20.03527576299844</v>
+        <v>345.004439675971</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
     </row>
     <row r="40">
@@ -7359,16 +7359,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>517.4848137278872</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="C41" t="n">
-        <v>517.4848137278872</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="D41" t="n">
-        <v>517.4848137278872</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="E41" t="n">
-        <v>274.7999090013961</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="F41" t="n">
-        <v>274.7999090013961</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="G41" t="n">
-        <v>274.7999090013961</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="H41" t="n">
         <v>31.35113235729608</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>742.8341567219593</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T41" t="n">
-        <v>517.4848137278872</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U41" t="n">
-        <v>517.4848137278872</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V41" t="n">
-        <v>517.4848137278872</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W41" t="n">
-        <v>517.4848137278872</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="X41" t="n">
-        <v>517.4848137278872</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="Y41" t="n">
-        <v>517.4848137278872</v>
+        <v>587.3248651012614</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7499,13 +7499,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7520,22 +7520,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>526.7184526376595</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>435.6470747334852</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X42" t="n">
-        <v>227.7955745279523</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y42" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
         <v>19.28114311021272</v>
@@ -7608,13 +7608,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>738.7078125165641</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="C44" t="n">
-        <v>738.7078125165641</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="D44" t="n">
-        <v>738.7078125165641</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="E44" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F44" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7672,28 +7672,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T44" t="n">
-        <v>738.7078125165641</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U44" t="n">
-        <v>738.7078125165641</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V44" t="n">
-        <v>738.7078125165641</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W44" t="n">
-        <v>738.7078125165641</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X44" t="n">
-        <v>738.7078125165641</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y44" t="n">
-        <v>738.7078125165641</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7736,13 +7736,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7769,10 +7769,10 @@
         <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>49.38115216564972</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y45" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="46">
@@ -7833,16 +7833,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
         <v>19.28114311021272</v>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8066,19 +8066,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N3" t="n">
-        <v>349.0484638974528</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>176.3234617176304</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M6" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>180.1904932776592</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N9" t="n">
-        <v>244.7225752110828</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>180.1904932776592</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M12" t="n">
-        <v>255.5148970497678</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,19 +9008,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>180.1904932776592</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N15" t="n">
-        <v>244.7225752110828</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -9251,16 +9251,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9488,10 +9488,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9728,16 +9728,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,22 +9959,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>195.4980740263837</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10439,10 +10439,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10670,19 +10670,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -11147,16 +11147,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11384,16 +11384,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>120.9881997240699</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>146.9462822885158</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="3">
@@ -22625,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>193.9289697178007</v>
       </c>
       <c r="W3" t="n">
-        <v>133.9689953088998</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22752,7 +22752,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22761,13 +22761,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V4" t="n">
-        <v>118.95067573846</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>285.7325478889088</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,7 +22792,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22828,16 +22828,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T5" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>347.366321224429</v>
       </c>
     </row>
     <row r="6">
@@ -22865,22 +22865,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>128.5763266090871</v>
       </c>
       <c r="D6" t="n">
-        <v>88.80381631673187</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>98.47189973158609</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22922,10 +22922,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>179.041529734255</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22959,7 +22959,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -22989,7 +22989,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -22998,7 +22998,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23010,7 +23010,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>174.4524809728662</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,13 +23029,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>353.049451855182</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23068,10 +23068,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="9">
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>114.6663463055326</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23108,13 +23108,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>98.47189973158609</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23147,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -23165,10 +23165,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23181,7 +23181,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>123.1146487193992</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23190,7 +23190,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>144.630597575249</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -23226,7 +23226,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23235,13 +23235,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23269,10 +23269,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>368.0044283100869</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23302,13 +23302,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S11" t="n">
-        <v>156.5945010984978</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23339,13 +23339,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>128.5763266090871</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>133.8311729414918</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>212.8233657292951</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>145.6435121988869</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>101.2888756437027</v>
       </c>
       <c r="G13" t="n">
         <v>167.9909793584588</v>
@@ -23463,13 +23463,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23481,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23497,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23509,7 +23509,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23551,10 +23551,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>222.4647346907568</v>
       </c>
       <c r="V14" t="n">
-        <v>125.4575720412377</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>145.2236497783945</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23588,7 +23588,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>187.0697646493503</v>
       </c>
       <c r="V15" t="n">
-        <v>148.2038544936906</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>147.8250225705301</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,7 +23670,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
         <v>155.4504749272583</v>
@@ -23703,7 +23703,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23715,10 +23715,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23746,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23776,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>138.6760617849701</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>130.141182554586</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
         <v>86.73796959247585</v>
@@ -23828,13 +23828,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>66.21791707219469</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>171.1123110561968</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23876,7 +23876,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23943,10 +23943,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23980,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24013,13 +24013,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24031,10 +24031,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>286.8247010151207</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>145.2236497783945</v>
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>120.497718190637</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24104,19 +24104,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24174,13 +24174,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24217,7 +24217,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>174.288448637476</v>
@@ -24250,31 +24250,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>171.0109458920165</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24299,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>103.403600082762</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24347,13 +24347,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>186.5643810956823</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24384,7 +24384,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
         <v>93.35918011667277</v>
@@ -24411,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24457,16 +24457,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24490,10 +24490,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>110.0962526177847</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>247.4175514543149</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24521,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>71.10541651401829</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>35.70223691486481</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24691,16 +24691,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>257.0136044766737</v>
       </c>
       <c r="I29" t="n">
-        <v>120.0869518323295</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24770,16 +24770,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>134.0144352187963</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24818,16 +24818,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>131.9453022177662</v>
       </c>
     </row>
     <row r="31">
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24961,16 +24961,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>156.5945010984978</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25001,25 +25001,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>56.94228378966251</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>83.09273717169856</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25122,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25131,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25165,7 +25165,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
@@ -25198,28 +25198,28 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>138.6760617849701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25247,7 +25247,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25289,7 +25289,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>176.6302781386795</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25298,10 +25298,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>108.2910995245858</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25402,16 +25402,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25435,22 +25435,22 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>212.7940713837205</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25484,10 +25484,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25520,25 +25520,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>171.1123110561969</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>133.5421849031687</v>
       </c>
     </row>
     <row r="40">
@@ -25599,7 +25599,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25636,16 +25636,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>141.6723143930357</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>271.0893844545596</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25672,13 +25672,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25721,16 +25721,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>14.00696723134696</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25760,22 +25760,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>161.534319035787</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G43" t="n">
         <v>167.9909793584588</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25873,16 +25873,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>287.5198830785557</v>
       </c>
       <c r="F44" t="n">
-        <v>176.6722207847417</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25912,13 +25912,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>20.3578223329223</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25964,10 +25964,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26009,10 +26009,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26073,7 +26073,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>498482.0175939975</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>498482.0175939975</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>498482.0175939976</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>498482.0175939976</v>
+        <v>358659.0160535965</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>498482.0175939975</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498482.0175939974</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498482.0175939973</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939973</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498482.0175939973</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498482.0175939974</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939973</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>59776.50267559939</v>
+      </c>
+      <c r="C2" t="n">
+        <v>59776.5026755994</v>
+      </c>
+      <c r="D2" t="n">
+        <v>59776.50267559939</v>
+      </c>
+      <c r="E2" t="n">
+        <v>59776.50267559937</v>
+      </c>
+      <c r="F2" t="n">
+        <v>59776.50267559937</v>
+      </c>
+      <c r="G2" t="n">
+        <v>83080.33626566615</v>
+      </c>
+      <c r="H2" t="n">
+        <v>83080.33626566615</v>
+      </c>
+      <c r="I2" t="n">
         <v>83080.33626566621</v>
       </c>
-      <c r="C2" t="n">
-        <v>83080.33626566618</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="J2" t="n">
         <v>83080.33626566615</v>
       </c>
-      <c r="E2" t="n">
+      <c r="K2" t="n">
         <v>83080.33626566615</v>
-      </c>
-      <c r="F2" t="n">
-        <v>83080.33626566621</v>
-      </c>
-      <c r="G2" t="n">
-        <v>83080.33626566618</v>
-      </c>
-      <c r="H2" t="n">
-        <v>83080.33626566618</v>
-      </c>
-      <c r="I2" t="n">
-        <v>83080.33626566618</v>
-      </c>
-      <c r="J2" t="n">
-        <v>83080.33626566618</v>
-      </c>
-      <c r="K2" t="n">
-        <v>83080.33626566618</v>
       </c>
       <c r="L2" t="n">
         <v>83080.33626566615</v>
       </c>
       <c r="M2" t="n">
-        <v>83080.33626566624</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="N2" t="n">
         <v>83080.33626566618</v>
       </c>
       <c r="O2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566615</v>
       </c>
       <c r="P2" t="n">
         <v>83080.33626566618</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.5324977039669</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="C4" t="n">
-        <v>179.5324977039669</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="D4" t="n">
-        <v>179.5324977039669</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="E4" t="n">
-        <v>179.5324977039669</v>
+        <v>36.87052286425572</v>
       </c>
       <c r="F4" t="n">
-        <v>179.5324977039669</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="G4" t="n">
         <v>179.5324977039669</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58367.90714738762</v>
+        <v>7184.250669929093</v>
       </c>
       <c r="C6" t="n">
-        <v>22401.52438416007</v>
+        <v>21973.95667417333</v>
       </c>
       <c r="D6" t="n">
-        <v>22401.52438416005</v>
+        <v>21973.95667417332</v>
       </c>
       <c r="E6" t="n">
-        <v>56029.12438416004</v>
+        <v>55601.5566741733</v>
       </c>
       <c r="F6" t="n">
-        <v>56029.1243841601</v>
+        <v>55601.5566741733</v>
       </c>
       <c r="G6" t="n">
-        <v>56029.12438416007</v>
+        <v>13062.89904172415</v>
       </c>
       <c r="H6" t="n">
-        <v>56029.12438416007</v>
+        <v>67025.33394219646</v>
       </c>
       <c r="I6" t="n">
-        <v>56029.12438416007</v>
+        <v>67025.33394219652</v>
       </c>
       <c r="J6" t="n">
-        <v>-7030.818214946155</v>
+        <v>55478.41583220557</v>
       </c>
       <c r="K6" t="n">
-        <v>56029.12438416007</v>
+        <v>67025.33394219646</v>
       </c>
       <c r="L6" t="n">
-        <v>56029.12438416004</v>
+        <v>67025.33394219646</v>
       </c>
       <c r="M6" t="n">
-        <v>56029.12438416012</v>
+        <v>67025.33394219649</v>
       </c>
       <c r="N6" t="n">
-        <v>56029.12438416007</v>
+        <v>67025.33394219649</v>
       </c>
       <c r="O6" t="n">
-        <v>56029.1243841601</v>
+        <v>19645.45572473268</v>
       </c>
       <c r="P6" t="n">
-        <v>56029.12438416007</v>
+        <v>67025.33394219649</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153933</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34786,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N3" t="n">
-        <v>217.7067518141195</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M6" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N9" t="n">
-        <v>113.3808631277494</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M12" t="n">
-        <v>113.3808631277495</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153933</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N15" t="n">
-        <v>113.3808631277494</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35971,16 +35971,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36208,10 +36208,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>169.9067907798017</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36448,16 +36448,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36931,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>55.51629994036219</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37159,10 +37159,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="O33" t="n">
         <v>113.3808631277494</v>
-      </c>
-      <c r="O33" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
